--- a/data/tasks.xlsx
+++ b/data/tasks.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="760">
   <si>
     <t xml:space="preserve">dirname</t>
   </si>
@@ -46,22 +46,22 @@
     <t xml:space="preserve">#word</t>
   </si>
   <si>
-    <t xml:space="preserve">annotator1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annotator2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finished1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finished2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42maru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knue</t>
+    <t xml:space="preserve">ZA.annotator1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA.annotator2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA.finished1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA.finished2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA.42maru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA.knue</t>
   </si>
   <si>
     <t xml:space="preserve">#doc</t>
@@ -373,6 +373,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">합계</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -585,6 +588,59 @@
     <t xml:space="preserve">라인 강</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[A1] 0021888_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">아폴로 계획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">본문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">).json</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">0021888_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아폴로 계획</t>
+  </si>
+  <si>
     <t xml:space="preserve">뉴스</t>
   </si>
   <si>
@@ -595,16 +651,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[A1] 0021888_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">아폴로 계획</t>
+      <t xml:space="preserve">[A1] 0022891_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">하버드 대학교</t>
     </r>
     <r>
       <rPr>
@@ -635,10 +691,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">0021888_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아폴로 계획</t>
+    <t xml:space="preserve">0022891_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하버드 대학교</t>
   </si>
   <si>
     <t xml:space="preserve">법률</t>
@@ -651,16 +707,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[A1] 0022891_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">하버드 대학교</t>
+      <t xml:space="preserve">[A1] 0031869_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">원나라</t>
     </r>
     <r>
       <rPr>
@@ -691,69 +747,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">0022891_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하버드 대학교</t>
+    <t xml:space="preserve">0031869_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">원나라</t>
   </si>
   <si>
     <t xml:space="preserve">특허</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[A1] 0031869_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">원나라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">본문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">).json</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">0031869_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">원나라</t>
-  </si>
-  <si>
-    <t xml:space="preserve">합계</t>
   </si>
   <si>
     <r>
@@ -18560,7 +18560,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -18606,7 +18606,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -18619,10 +18619,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -18631,12 +18627,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -18668,16 +18672,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="47.1122448979592"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="17" min="7" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="20" min="18" style="2" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1019" min="21" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1022" min="1020" style="3" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="17" min="7" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="20" min="18" style="2" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="11.6071428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18723,7 +18725,6 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="0"/>
       <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
@@ -18750,13 +18751,13 @@
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
@@ -18793,15 +18794,15 @@
         <f aca="false">SUMIF(I:I, Q2, G:G)</f>
         <v>6026</v>
       </c>
-      <c r="T2" s="5" t="n">
+      <c r="T2" s="4" t="n">
         <f aca="false">SUMIF(I:I, Q2, H:H)</f>
         <v>84573</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="5" t="n">
         <f aca="false">SUM(K:K)</f>
         <v>83</v>
       </c>
-      <c r="V2" s="7" t="n">
+      <c r="V2" s="6" t="n">
         <f aca="false">U2/R2</f>
         <v>0.461111111111111</v>
       </c>
@@ -18816,13 +18817,13 @@
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="1" t="n">
@@ -18855,19 +18856,19 @@
         <f aca="false">COUNTIF(J:J, Q3)</f>
         <v>145</v>
       </c>
-      <c r="S3" s="5" t="n">
+      <c r="S3" s="4" t="n">
         <f aca="false">SUMIF(J:J, Q3, G:G)</f>
         <v>5342</v>
       </c>
-      <c r="T3" s="5" t="n">
+      <c r="T3" s="4" t="n">
         <f aca="false">SUMIF(J:J, Q3, H:H)</f>
         <v>91352</v>
       </c>
-      <c r="U3" s="6" t="n">
+      <c r="U3" s="5" t="n">
         <f aca="false">SUM(L:L)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="7" t="n">
+      <c r="V3" s="6" t="n">
         <f aca="false">U3/R3</f>
         <v>0</v>
       </c>
@@ -18882,13 +18883,13 @@
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="1" t="n">
@@ -18914,29 +18915,40 @@
       <c r="N4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="Q4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <f aca="false">SUM(R2:R3)</f>
+        <v>325</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <f aca="false">SUM(S2:S3)</f>
+        <v>11368</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <f aca="false">SUM(T2:T3)</f>
+        <v>175925</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>31</v>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>30</v>
@@ -18959,39 +18971,33 @@
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>34</v>
+      <c r="F6" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>30</v>
@@ -19014,22 +19020,19 @@
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <f aca="false">COUNTIFS(I:I, Q$5, E:E, Q6)</f>
-        <v>115</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <f aca="false">SUMIFS(G:G, $I:$I, $Q$5, $E:$E, $Q6)</f>
-        <v>4530</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <f aca="false">SUMIFS(H:H, $I:$I, $Q$5, $E:$E, $Q6)</f>
-        <v>64173</v>
+        <v>34</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19037,19 +19040,19 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>37</v>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>32</v>
@@ -19072,22 +19075,22 @@
         <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="R7" s="2" t="n">
-        <f aca="false">COUNTIFS(I:I, Q$5, E:E, Q7)</f>
-        <v>65</v>
+        <f aca="false">COUNTIFS(I:I, Q$6, E:E, Q7)</f>
+        <v>115</v>
       </c>
       <c r="S7" s="2" t="n">
-        <f aca="false">SUMIFS(G:G, $I:$I, $Q$5, $E:$E, $Q7)</f>
-        <v>1496</v>
+        <f aca="false">SUMIFS(G:G, $I:$I, $Q$6, $E:$E, $Q7)</f>
+        <v>4530</v>
       </c>
       <c r="T7" s="2" t="n">
-        <f aca="false">SUMIFS(H:H, $I:$I, $Q$5, $E:$E, $Q7)</f>
-        <v>20400</v>
+        <f aca="false">SUMIFS(H:H, $I:$I, $Q$6, $E:$E, $Q7)</f>
+        <v>64173</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19100,13 +19103,13 @@
       <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="1" t="n">
@@ -19132,20 +19135,20 @@
       <c r="N8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="R8" s="2" t="n">
-        <f aca="false">COUNTIFS(I:I, Q$5, E:E, Q8)</f>
-        <v>0</v>
+        <f aca="false">COUNTIFS(I:I, Q$6, E:E, Q8)</f>
+        <v>65</v>
       </c>
       <c r="S8" s="2" t="n">
-        <f aca="false">SUMIFS(G:G, $I:$I, $Q$5, $E:$E, $Q8)</f>
-        <v>0</v>
+        <f aca="false">SUMIFS(G:G, $I:$I, $Q$6, $E:$E, $Q8)</f>
+        <v>1496</v>
       </c>
       <c r="T8" s="2" t="n">
-        <f aca="false">SUMIFS(H:H, $I:$I, $Q$5, $E:$E, $Q8)</f>
-        <v>0</v>
+        <f aca="false">SUMIFS(H:H, $I:$I, $Q$6, $E:$E, $Q8)</f>
+        <v>20400</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19158,13 +19161,13 @@
       <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="1" t="n">
@@ -19190,19 +19193,19 @@
       <c r="N9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="3" t="s">
         <v>46</v>
       </c>
       <c r="R9" s="2" t="n">
-        <f aca="false">COUNTIFS(I:I, Q$5, E:E, Q9)</f>
+        <f aca="false">COUNTIFS(I:I, Q$6, E:E, Q9)</f>
         <v>0</v>
       </c>
       <c r="S9" s="2" t="n">
-        <f aca="false">SUMIFS(G:G, $I:$I, $Q$5, $E:$E, $Q9)</f>
+        <f aca="false">SUMIFS(G:G, $I:$I, $Q$6, $E:$E, $Q9)</f>
         <v>0</v>
       </c>
       <c r="T9" s="2" t="n">
-        <f aca="false">SUMIFS(H:H, $I:$I, $Q$5, $E:$E, $Q9)</f>
+        <f aca="false">SUMIFS(H:H, $I:$I, $Q$6, $E:$E, $Q9)</f>
         <v>0</v>
       </c>
     </row>
@@ -19216,13 +19219,13 @@
       <c r="C10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="1" t="n">
@@ -19248,20 +19251,20 @@
       <c r="N10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="3" t="s">
         <v>50</v>
       </c>
       <c r="R10" s="2" t="n">
-        <f aca="false">SUM(R6:R9)</f>
-        <v>180</v>
+        <f aca="false">COUNTIFS(I:I, Q$6, E:E, Q10)</f>
+        <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <f aca="false">SUM(S6:S9)</f>
-        <v>6026</v>
+        <f aca="false">SUMIFS(G:G, $I:$I, $Q$6, $E:$E, $Q10)</f>
+        <v>0</v>
       </c>
       <c r="T10" s="2" t="n">
-        <f aca="false">SUM(T6:T9)</f>
-        <v>84573</v>
+        <f aca="false">SUMIFS(H:H, $I:$I, $Q$6, $E:$E, $Q10)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19274,13 +19277,13 @@
       <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G11" s="1" t="n">
@@ -19306,10 +19309,21 @@
       <c r="N11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <f aca="false">SUM(R7:R10)</f>
+        <v>180</v>
+      </c>
+      <c r="S11" s="2" t="n">
+        <f aca="false">SUM(S7:S10)</f>
+        <v>6026</v>
+      </c>
+      <c r="T11" s="2" t="n">
+        <f aca="false">SUM(T7:T10)</f>
+        <v>84573</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -19321,13 +19335,13 @@
       <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="1" t="n">
@@ -19353,18 +19367,7 @@
       <c r="N12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -19376,13 +19379,13 @@
       <c r="C13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="1" t="n">
@@ -19408,20 +19411,17 @@
       <c r="N13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R13" s="2" t="n">
-        <f aca="false">COUNTIFS(J:J, Q$12, E:E, Q13)</f>
-        <v>35</v>
-      </c>
-      <c r="S13" s="2" t="n">
-        <f aca="false">SUMIFS(G:G, $J:$J, $Q$12, $E:$E, $Q13)</f>
-        <v>728</v>
-      </c>
-      <c r="T13" s="2" t="n">
-        <f aca="false">SUMIFS(H:H, $J:$J, $Q$12, $E:$E, $Q13)</f>
-        <v>10573</v>
+      <c r="Q13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19434,13 +19434,13 @@
       <c r="C14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="1" t="n">
@@ -19466,20 +19466,20 @@
       <c r="N14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>38</v>
+      <c r="Q14" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="R14" s="2" t="n">
-        <f aca="false">COUNTIFS(J:J, Q$12, E:E, Q14)</f>
-        <v>30</v>
+        <f aca="false">COUNTIFS(J:J, Q$13, E:E, Q14)</f>
+        <v>35</v>
       </c>
       <c r="S14" s="2" t="n">
-        <f aca="false">SUMIFS(G:G, $J:$J, $Q$12, $E:$E, $Q14)</f>
-        <v>771</v>
+        <f aca="false">SUMIFS(G:G, $J:$J, $Q$13, $E:$E, $Q14)</f>
+        <v>728</v>
       </c>
       <c r="T14" s="2" t="n">
-        <f aca="false">SUMIFS(H:H, $J:$J, $Q$12, $E:$E, $Q14)</f>
-        <v>11219</v>
+        <f aca="false">SUMIFS(H:H, $J:$J, $Q$13, $E:$E, $Q14)</f>
+        <v>10573</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19492,13 +19492,13 @@
       <c r="C15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>65</v>
       </c>
       <c r="G15" s="1" t="n">
@@ -19524,20 +19524,20 @@
       <c r="N15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="3" t="s">
         <v>42</v>
       </c>
       <c r="R15" s="2" t="n">
-        <f aca="false">COUNTIFS(J:J, Q$12, E:E, Q15)</f>
-        <v>42</v>
+        <f aca="false">COUNTIFS(J:J, Q$13, E:E, Q15)</f>
+        <v>30</v>
       </c>
       <c r="S15" s="2" t="n">
-        <f aca="false">SUMIFS(G:G, $J:$J, $Q$12, $E:$E, $Q15)</f>
-        <v>2142</v>
+        <f aca="false">SUMIFS(G:G, $J:$J, $Q$13, $E:$E, $Q15)</f>
+        <v>771</v>
       </c>
       <c r="T15" s="2" t="n">
-        <f aca="false">SUMIFS(H:H, $J:$J, $Q$12, $E:$E, $Q15)</f>
-        <v>29102</v>
+        <f aca="false">SUMIFS(H:H, $J:$J, $Q$13, $E:$E, $Q15)</f>
+        <v>11219</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19550,13 +19550,13 @@
       <c r="C16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G16" s="1" t="n">
@@ -19582,20 +19582,20 @@
       <c r="N16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="3" t="s">
         <v>46</v>
       </c>
       <c r="R16" s="2" t="n">
-        <f aca="false">COUNTIFS(J:J, Q$12, E:E, Q16)</f>
-        <v>38</v>
+        <f aca="false">COUNTIFS(J:J, Q$13, E:E, Q16)</f>
+        <v>42</v>
       </c>
       <c r="S16" s="2" t="n">
-        <f aca="false">SUMIFS(G:G, $J:$J, $Q$12, $E:$E, $Q16)</f>
-        <v>1701</v>
+        <f aca="false">SUMIFS(G:G, $J:$J, $Q$13, $E:$E, $Q16)</f>
+        <v>2142</v>
       </c>
       <c r="T16" s="2" t="n">
-        <f aca="false">SUMIFS(H:H, $J:$J, $Q$12, $E:$E, $Q16)</f>
-        <v>40458</v>
+        <f aca="false">SUMIFS(H:H, $J:$J, $Q$13, $E:$E, $Q16)</f>
+        <v>29102</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19608,13 +19608,13 @@
       <c r="C17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G17" s="1" t="n">
@@ -19640,20 +19640,20 @@
       <c r="N17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="R17" s="2" t="n">
-        <f aca="false">SUM(R13:R16)</f>
-        <v>145</v>
+        <f aca="false">COUNTIFS(J:J, Q$13, E:E, Q17)</f>
+        <v>38</v>
       </c>
       <c r="S17" s="2" t="n">
-        <f aca="false">SUM(S13:S16)</f>
-        <v>5342</v>
+        <f aca="false">SUMIFS(G:G, $J:$J, $Q$13, $E:$E, $Q17)</f>
+        <v>1701</v>
       </c>
       <c r="T17" s="2" t="n">
-        <f aca="false">SUM(T13:T16)</f>
-        <v>91352</v>
+        <f aca="false">SUMIFS(H:H, $J:$J, $Q$13, $E:$E, $Q17)</f>
+        <v>40458</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19666,13 +19666,13 @@
       <c r="C18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G18" s="1" t="n">
@@ -19697,6 +19697,21 @@
       </c>
       <c r="N18" s="1" t="s">
         <v>73</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="2" t="n">
+        <f aca="false">SUM(R14:R17)</f>
+        <v>145</v>
+      </c>
+      <c r="S18" s="2" t="n">
+        <f aca="false">SUM(S14:S17)</f>
+        <v>5342</v>
+      </c>
+      <c r="T18" s="2" t="n">
+        <f aca="false">SUM(T14:T17)</f>
+        <v>91352</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19709,13 +19724,13 @@
       <c r="C19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G19" s="1" t="n">
@@ -19752,10 +19767,10 @@
       <c r="C20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -19795,13 +19810,13 @@
       <c r="C21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G21" s="1" t="n">
@@ -19838,13 +19853,13 @@
       <c r="C22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>86</v>
       </c>
       <c r="G22" s="1" t="n">
@@ -19881,13 +19896,13 @@
       <c r="C23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>89</v>
       </c>
       <c r="G23" s="1" t="n">
@@ -19924,13 +19939,13 @@
       <c r="C24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G24" s="1" t="n">
@@ -19967,13 +19982,13 @@
       <c r="C25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>95</v>
       </c>
       <c r="G25" s="1" t="n">
@@ -20010,13 +20025,13 @@
       <c r="C26" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>98</v>
       </c>
       <c r="G26" s="1" t="n">
@@ -20053,13 +20068,13 @@
       <c r="C27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>101</v>
       </c>
       <c r="G27" s="1" t="n">
@@ -20096,13 +20111,13 @@
       <c r="C28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>104</v>
       </c>
       <c r="G28" s="1" t="n">
@@ -20139,13 +20154,13 @@
       <c r="C29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>107</v>
       </c>
       <c r="G29" s="1" t="n">
@@ -20182,13 +20197,13 @@
       <c r="C30" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>110</v>
       </c>
       <c r="G30" s="1" t="n">
@@ -20225,13 +20240,13 @@
       <c r="C31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>113</v>
       </c>
       <c r="G31" s="1" t="n">
@@ -20268,13 +20283,13 @@
       <c r="C32" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>116</v>
       </c>
       <c r="G32" s="1" t="n">
@@ -20311,13 +20326,13 @@
       <c r="C33" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>119</v>
       </c>
       <c r="G33" s="1" t="n">
@@ -20354,13 +20369,13 @@
       <c r="C34" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>122</v>
       </c>
       <c r="G34" s="1" t="n">
@@ -20397,13 +20412,13 @@
       <c r="C35" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>125</v>
       </c>
       <c r="G35" s="1" t="n">
@@ -20440,13 +20455,13 @@
       <c r="C36" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="3" t="s">
         <v>128</v>
       </c>
       <c r="G36" s="1" t="n">
@@ -20483,13 +20498,13 @@
       <c r="C37" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="3" t="s">
         <v>134</v>
       </c>
       <c r="G37" s="1" t="n">
@@ -20501,7 +20516,6 @@
       <c r="I37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="0"/>
       <c r="K37" s="1" t="n">
         <f aca="false">IF(I37=N$1, COUNTIFS(N:N, $C37), 0)</f>
         <v>0</v>
@@ -20524,13 +20538,13 @@
       <c r="C38" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="3" t="s">
         <v>138</v>
       </c>
       <c r="G38" s="1" t="n">
@@ -20542,7 +20556,6 @@
       <c r="I38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J38" s="0"/>
       <c r="K38" s="1" t="n">
         <f aca="false">IF(I38=N$1, COUNTIFS(N:N, $C38), 0)</f>
         <v>0</v>
@@ -20565,13 +20578,13 @@
       <c r="C39" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="3" t="s">
         <v>142</v>
       </c>
       <c r="G39" s="1" t="n">
@@ -20583,7 +20596,6 @@
       <c r="I39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J39" s="0"/>
       <c r="K39" s="1" t="n">
         <f aca="false">IF(I39=N$1, COUNTIFS(N:N, $C39), 0)</f>
         <v>0</v>
@@ -20606,13 +20618,13 @@
       <c r="C40" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="3" t="s">
         <v>146</v>
       </c>
       <c r="G40" s="1" t="n">
@@ -20624,7 +20636,6 @@
       <c r="I40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J40" s="0"/>
       <c r="K40" s="1" t="n">
         <f aca="false">IF(I40=N$1, COUNTIFS(N:N, $C40), 0)</f>
         <v>0</v>
@@ -20647,13 +20658,13 @@
       <c r="C41" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="3" t="s">
         <v>150</v>
       </c>
       <c r="G41" s="1" t="n">
@@ -20665,7 +20676,6 @@
       <c r="I41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J41" s="0"/>
       <c r="K41" s="1" t="n">
         <f aca="false">IF(I41=N$1, COUNTIFS(N:N, $C41), 0)</f>
         <v>0</v>
@@ -20688,13 +20698,13 @@
       <c r="C42" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="3" t="s">
         <v>154</v>
       </c>
       <c r="G42" s="1" t="n">
@@ -20706,7 +20716,6 @@
       <c r="I42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="0"/>
       <c r="K42" s="1" t="n">
         <f aca="false">IF(I42=N$1, COUNTIFS(N:N, $C42), 0)</f>
         <v>0</v>
@@ -20729,13 +20738,13 @@
       <c r="C43" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="3" t="s">
         <v>158</v>
       </c>
       <c r="G43" s="1" t="n">
@@ -20747,7 +20756,6 @@
       <c r="I43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J43" s="0"/>
       <c r="K43" s="1" t="n">
         <f aca="false">IF(I43=N$1, COUNTIFS(N:N, $C43), 0)</f>
         <v>0</v>
@@ -20770,13 +20778,13 @@
       <c r="C44" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G44" s="1" t="n">
@@ -20788,7 +20796,6 @@
       <c r="I44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="0"/>
       <c r="K44" s="1" t="n">
         <f aca="false">IF(I44=N$1, COUNTIFS(N:N, $C44), 0)</f>
         <v>0</v>
@@ -20811,13 +20818,13 @@
       <c r="C45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="3" t="s">
         <v>166</v>
       </c>
       <c r="G45" s="1" t="n">
@@ -20829,7 +20836,6 @@
       <c r="I45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J45" s="0"/>
       <c r="K45" s="1" t="n">
         <f aca="false">IF(I45=N$1, COUNTIFS(N:N, $C45), 0)</f>
         <v>0</v>
@@ -20852,13 +20858,13 @@
       <c r="C46" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="3" t="s">
         <v>170</v>
       </c>
       <c r="G46" s="1" t="n">
@@ -20870,7 +20876,6 @@
       <c r="I46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J46" s="0"/>
       <c r="K46" s="1" t="n">
         <f aca="false">IF(I46=N$1, COUNTIFS(N:N, $C46), 0)</f>
         <v>0</v>
@@ -20893,13 +20898,13 @@
       <c r="C47" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="3" t="s">
         <v>174</v>
       </c>
       <c r="G47" s="1" t="n">
@@ -20911,7 +20916,6 @@
       <c r="I47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J47" s="0"/>
       <c r="K47" s="1" t="n">
         <f aca="false">IF(I47=N$1, COUNTIFS(N:N, $C47), 0)</f>
         <v>0</v>
@@ -20934,13 +20938,13 @@
       <c r="C48" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="3" t="s">
         <v>178</v>
       </c>
       <c r="G48" s="1" t="n">
@@ -20952,7 +20956,6 @@
       <c r="I48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J48" s="0"/>
       <c r="K48" s="1" t="n">
         <f aca="false">IF(I48=N$1, COUNTIFS(N:N, $C48), 0)</f>
         <v>0</v>
@@ -20975,13 +20978,13 @@
       <c r="C49" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="3" t="s">
         <v>182</v>
       </c>
       <c r="G49" s="1" t="n">
@@ -20993,7 +20996,6 @@
       <c r="I49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J49" s="0"/>
       <c r="K49" s="1" t="n">
         <f aca="false">IF(I49=N$1, COUNTIFS(N:N, $C49), 0)</f>
         <v>0</v>
@@ -21016,13 +21018,13 @@
       <c r="C50" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G50" s="1" t="n">
@@ -21034,7 +21036,6 @@
       <c r="I50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J50" s="0"/>
       <c r="K50" s="1" t="n">
         <f aca="false">IF(I50=N$1, COUNTIFS(N:N, $C50), 0)</f>
         <v>0</v>
@@ -21057,13 +21058,13 @@
       <c r="C51" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="3" t="s">
         <v>190</v>
       </c>
       <c r="G51" s="1" t="n">
@@ -21075,7 +21076,6 @@
       <c r="I51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="0"/>
       <c r="K51" s="1" t="n">
         <f aca="false">IF(I51=N$1, COUNTIFS(N:N, $C51), 0)</f>
         <v>0</v>
@@ -21098,13 +21098,13 @@
       <c r="C52" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="3" t="s">
         <v>194</v>
       </c>
       <c r="G52" s="1" t="n">
@@ -21116,7 +21116,6 @@
       <c r="I52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J52" s="0"/>
       <c r="K52" s="1" t="n">
         <f aca="false">IF(I52=N$1, COUNTIFS(N:N, $C52), 0)</f>
         <v>0</v>
@@ -21139,13 +21138,13 @@
       <c r="C53" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="3" t="s">
         <v>198</v>
       </c>
       <c r="G53" s="1" t="n">
@@ -21157,7 +21156,6 @@
       <c r="I53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J53" s="0"/>
       <c r="K53" s="1" t="n">
         <f aca="false">IF(I53=N$1, COUNTIFS(N:N, $C53), 0)</f>
         <v>0</v>
@@ -21180,13 +21178,13 @@
       <c r="C54" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="3" t="s">
         <v>202</v>
       </c>
       <c r="G54" s="1" t="n">
@@ -21198,7 +21196,6 @@
       <c r="I54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J54" s="0"/>
       <c r="K54" s="1" t="n">
         <f aca="false">IF(I54=N$1, COUNTIFS(N:N, $C54), 0)</f>
         <v>0</v>
@@ -21221,13 +21218,13 @@
       <c r="C55" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="3" t="s">
         <v>206</v>
       </c>
       <c r="G55" s="1" t="n">
@@ -21239,7 +21236,6 @@
       <c r="I55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="0"/>
       <c r="K55" s="1" t="n">
         <f aca="false">IF(I55=N$1, COUNTIFS(N:N, $C55), 0)</f>
         <v>0</v>
@@ -21262,13 +21258,13 @@
       <c r="C56" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="3" t="s">
         <v>210</v>
       </c>
       <c r="G56" s="1" t="n">
@@ -21280,7 +21276,6 @@
       <c r="I56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J56" s="0"/>
       <c r="K56" s="1" t="n">
         <f aca="false">IF(I56=N$1, COUNTIFS(N:N, $C56), 0)</f>
         <v>0</v>
@@ -21303,13 +21298,13 @@
       <c r="C57" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="3" t="s">
         <v>214</v>
       </c>
       <c r="G57" s="1" t="n">
@@ -21321,7 +21316,6 @@
       <c r="I57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J57" s="0"/>
       <c r="K57" s="1" t="n">
         <f aca="false">IF(I57=N$1, COUNTIFS(N:N, $C57), 0)</f>
         <v>0</v>
@@ -21344,13 +21338,13 @@
       <c r="C58" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="3" t="s">
         <v>218</v>
       </c>
       <c r="G58" s="1" t="n">
@@ -21362,7 +21356,6 @@
       <c r="I58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J58" s="0"/>
       <c r="K58" s="1" t="n">
         <f aca="false">IF(I58=N$1, COUNTIFS(N:N, $C58), 0)</f>
         <v>0</v>
@@ -21385,13 +21378,13 @@
       <c r="C59" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="3" t="s">
         <v>222</v>
       </c>
       <c r="G59" s="1" t="n">
@@ -21403,7 +21396,6 @@
       <c r="I59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J59" s="0"/>
       <c r="K59" s="1" t="n">
         <f aca="false">IF(I59=N$1, COUNTIFS(N:N, $C59), 0)</f>
         <v>0</v>
@@ -21426,13 +21418,13 @@
       <c r="C60" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="3" t="s">
         <v>226</v>
       </c>
       <c r="G60" s="1" t="n">
@@ -21444,7 +21436,6 @@
       <c r="I60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J60" s="0"/>
       <c r="K60" s="1" t="n">
         <f aca="false">IF(I60=N$1, COUNTIFS(N:N, $C60), 0)</f>
         <v>0</v>
@@ -21467,13 +21458,13 @@
       <c r="C61" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="3" t="s">
         <v>230</v>
       </c>
       <c r="G61" s="1" t="n">
@@ -21485,7 +21476,6 @@
       <c r="I61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J61" s="0"/>
       <c r="K61" s="1" t="n">
         <f aca="false">IF(I61=N$1, COUNTIFS(N:N, $C61), 0)</f>
         <v>0</v>
@@ -21508,13 +21498,13 @@
       <c r="C62" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="3" t="s">
         <v>234</v>
       </c>
       <c r="G62" s="1" t="n">
@@ -21526,7 +21516,6 @@
       <c r="I62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J62" s="0"/>
       <c r="K62" s="1" t="n">
         <f aca="false">IF(I62=N$1, COUNTIFS(N:N, $C62), 0)</f>
         <v>0</v>
@@ -21549,13 +21538,13 @@
       <c r="C63" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="3" t="s">
         <v>238</v>
       </c>
       <c r="G63" s="1" t="n">
@@ -21567,7 +21556,6 @@
       <c r="I63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J63" s="0"/>
       <c r="K63" s="1" t="n">
         <f aca="false">IF(I63=N$1, COUNTIFS(N:N, $C63), 0)</f>
         <v>0</v>
@@ -21590,13 +21578,13 @@
       <c r="C64" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="3" t="s">
         <v>242</v>
       </c>
       <c r="G64" s="1" t="n">
@@ -21608,7 +21596,6 @@
       <c r="I64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J64" s="0"/>
       <c r="K64" s="1" t="n">
         <f aca="false">IF(I64=N$1, COUNTIFS(N:N, $C64), 0)</f>
         <v>0</v>
@@ -21631,13 +21618,13 @@
       <c r="C65" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="3" t="s">
         <v>246</v>
       </c>
       <c r="G65" s="1" t="n">
@@ -21649,7 +21636,6 @@
       <c r="I65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J65" s="0"/>
       <c r="K65" s="1" t="n">
         <f aca="false">IF(I65=N$1, COUNTIFS(N:N, $C65), 0)</f>
         <v>0</v>
@@ -21672,13 +21658,13 @@
       <c r="C66" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="3" t="s">
         <v>250</v>
       </c>
       <c r="G66" s="1" t="n">
@@ -21690,7 +21676,6 @@
       <c r="I66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J66" s="0"/>
       <c r="K66" s="1" t="n">
         <f aca="false">IF(I66=N$1, COUNTIFS(N:N, $C66), 0)</f>
         <v>0</v>
@@ -21713,13 +21698,13 @@
       <c r="C67" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="3" t="s">
         <v>254</v>
       </c>
       <c r="G67" s="1" t="n">
@@ -21731,7 +21716,6 @@
       <c r="I67" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J67" s="0"/>
       <c r="K67" s="1" t="n">
         <f aca="false">IF(I67=N$1, COUNTIFS(N:N, $C67), 0)</f>
         <v>0</v>
@@ -21754,13 +21738,13 @@
       <c r="C68" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="3" t="s">
         <v>258</v>
       </c>
       <c r="G68" s="1" t="n">
@@ -21772,7 +21756,6 @@
       <c r="I68" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J68" s="0"/>
       <c r="K68" s="1" t="n">
         <f aca="false">IF(I68=N$1, COUNTIFS(N:N, $C68), 0)</f>
         <v>0</v>
@@ -21795,13 +21778,13 @@
       <c r="C69" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="3" t="s">
         <v>262</v>
       </c>
       <c r="G69" s="1" t="n">
@@ -21813,7 +21796,6 @@
       <c r="I69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J69" s="0"/>
       <c r="K69" s="1" t="n">
         <f aca="false">IF(I69=N$1, COUNTIFS(N:N, $C69), 0)</f>
         <v>0</v>
@@ -21836,13 +21818,13 @@
       <c r="C70" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="3" t="s">
         <v>266</v>
       </c>
       <c r="G70" s="1" t="n">
@@ -21854,7 +21836,6 @@
       <c r="I70" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J70" s="0"/>
       <c r="K70" s="1" t="n">
         <f aca="false">IF(I70=N$1, COUNTIFS(N:N, $C70), 0)</f>
         <v>0</v>
@@ -21877,13 +21858,13 @@
       <c r="C71" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="3" t="s">
         <v>270</v>
       </c>
       <c r="G71" s="1" t="n">
@@ -21895,7 +21876,6 @@
       <c r="I71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J71" s="0"/>
       <c r="K71" s="1" t="n">
         <f aca="false">IF(I71=N$1, COUNTIFS(N:N, $C71), 0)</f>
         <v>0</v>
@@ -21918,13 +21898,13 @@
       <c r="C72" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="3" t="s">
         <v>274</v>
       </c>
       <c r="G72" s="1" t="n">
@@ -21936,7 +21916,6 @@
       <c r="I72" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="0"/>
       <c r="K72" s="1" t="n">
         <f aca="false">IF(I72=N$1, COUNTIFS(N:N, $C72), 0)</f>
         <v>0</v>
@@ -21959,13 +21938,13 @@
       <c r="C73" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="3" t="s">
         <v>278</v>
       </c>
       <c r="G73" s="1" t="n">
@@ -21977,7 +21956,6 @@
       <c r="I73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J73" s="0"/>
       <c r="K73" s="1" t="n">
         <f aca="false">IF(I73=N$1, COUNTIFS(N:N, $C73), 0)</f>
         <v>0</v>
@@ -22000,13 +21978,13 @@
       <c r="C74" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="3" t="s">
         <v>282</v>
       </c>
       <c r="G74" s="1" t="n">
@@ -22018,7 +21996,6 @@
       <c r="I74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="0"/>
       <c r="K74" s="1" t="n">
         <f aca="false">IF(I74=N$1, COUNTIFS(N:N, $C74), 0)</f>
         <v>0</v>
@@ -22041,13 +22018,13 @@
       <c r="C75" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="3" t="s">
         <v>286</v>
       </c>
       <c r="G75" s="1" t="n">
@@ -22059,7 +22036,6 @@
       <c r="I75" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="0"/>
       <c r="K75" s="1" t="n">
         <f aca="false">IF(I75=N$1, COUNTIFS(N:N, $C75), 0)</f>
         <v>0</v>
@@ -22082,13 +22058,13 @@
       <c r="C76" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="3" t="s">
         <v>290</v>
       </c>
       <c r="G76" s="1" t="n">
@@ -22100,7 +22076,6 @@
       <c r="I76" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J76" s="0"/>
       <c r="K76" s="1" t="n">
         <f aca="false">IF(I76=N$1, COUNTIFS(N:N, $C76), 0)</f>
         <v>0</v>
@@ -22123,13 +22098,13 @@
       <c r="C77" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="3" t="s">
         <v>294</v>
       </c>
       <c r="G77" s="1" t="n">
@@ -22141,7 +22116,6 @@
       <c r="I77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J77" s="0"/>
       <c r="K77" s="1" t="n">
         <f aca="false">IF(I77=N$1, COUNTIFS(N:N, $C77), 0)</f>
         <v>0</v>
@@ -22164,13 +22138,13 @@
       <c r="C78" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="3" t="s">
         <v>298</v>
       </c>
       <c r="G78" s="1" t="n">
@@ -22182,7 +22156,6 @@
       <c r="I78" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J78" s="0"/>
       <c r="K78" s="1" t="n">
         <f aca="false">IF(I78=N$1, COUNTIFS(N:N, $C78), 0)</f>
         <v>0</v>
@@ -22205,13 +22178,13 @@
       <c r="C79" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="3" t="s">
         <v>302</v>
       </c>
       <c r="G79" s="1" t="n">
@@ -22223,7 +22196,6 @@
       <c r="I79" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J79" s="0"/>
       <c r="K79" s="1" t="n">
         <f aca="false">IF(I79=N$1, COUNTIFS(N:N, $C79), 0)</f>
         <v>0</v>
@@ -22246,13 +22218,13 @@
       <c r="C80" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="3" t="s">
         <v>306</v>
       </c>
       <c r="G80" s="1" t="n">
@@ -22264,7 +22236,6 @@
       <c r="I80" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J80" s="0"/>
       <c r="K80" s="1" t="n">
         <f aca="false">IF(I80=N$1, COUNTIFS(N:N, $C80), 0)</f>
         <v>0</v>
@@ -22287,13 +22258,13 @@
       <c r="C81" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="3" t="s">
         <v>310</v>
       </c>
       <c r="G81" s="1" t="n">
@@ -22305,7 +22276,6 @@
       <c r="I81" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J81" s="0"/>
       <c r="K81" s="1" t="n">
         <f aca="false">IF(I81=N$1, COUNTIFS(N:N, $C81), 0)</f>
         <v>0</v>
@@ -22328,13 +22298,13 @@
       <c r="C82" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="3" t="s">
         <v>314</v>
       </c>
       <c r="G82" s="1" t="n">
@@ -22346,7 +22316,6 @@
       <c r="I82" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J82" s="0"/>
       <c r="K82" s="1" t="n">
         <f aca="false">IF(I82=N$1, COUNTIFS(N:N, $C82), 0)</f>
         <v>0</v>
@@ -22369,13 +22338,13 @@
       <c r="C83" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="3" t="s">
         <v>318</v>
       </c>
       <c r="G83" s="1" t="n">
@@ -22387,7 +22356,6 @@
       <c r="I83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J83" s="0"/>
       <c r="K83" s="1" t="n">
         <f aca="false">IF(I83=N$1, COUNTIFS(N:N, $C83), 0)</f>
         <v>0</v>
@@ -22410,13 +22378,13 @@
       <c r="C84" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="3" t="s">
         <v>322</v>
       </c>
       <c r="G84" s="1" t="n">
@@ -22428,7 +22396,6 @@
       <c r="I84" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J84" s="0"/>
       <c r="K84" s="1" t="n">
         <f aca="false">IF(I84=N$1, COUNTIFS(N:N, $C84), 0)</f>
         <v>0</v>
@@ -22451,13 +22418,13 @@
       <c r="C85" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G85" s="1" t="n">
@@ -22469,7 +22436,6 @@
       <c r="I85" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J85" s="0"/>
       <c r="K85" s="1" t="n">
         <f aca="false">IF(I85=N$1, COUNTIFS(N:N, $C85), 0)</f>
         <v>0</v>
@@ -22489,13 +22455,13 @@
       <c r="C86" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="3" t="s">
         <v>329</v>
       </c>
       <c r="G86" s="1" t="n">
@@ -22507,7 +22473,6 @@
       <c r="I86" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J86" s="0"/>
       <c r="K86" s="1" t="n">
         <f aca="false">IF(I86=N$1, COUNTIFS(N:N, $C86), 0)</f>
         <v>0</v>
@@ -22527,13 +22492,13 @@
       <c r="C87" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="3" t="s">
         <v>332</v>
       </c>
       <c r="G87" s="1" t="n">
@@ -22545,7 +22510,6 @@
       <c r="I87" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J87" s="0"/>
       <c r="K87" s="1" t="n">
         <f aca="false">IF(I87=N$1, COUNTIFS(N:N, $C87), 0)</f>
         <v>0</v>
@@ -22565,13 +22529,13 @@
       <c r="C88" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="3" t="s">
         <v>335</v>
       </c>
       <c r="G88" s="1" t="n">
@@ -22583,7 +22547,6 @@
       <c r="I88" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J88" s="0"/>
       <c r="K88" s="1" t="n">
         <f aca="false">IF(I88=N$1, COUNTIFS(N:N, $C88), 0)</f>
         <v>0</v>
@@ -22603,13 +22566,13 @@
       <c r="C89" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="3" t="s">
         <v>338</v>
       </c>
       <c r="G89" s="1" t="n">
@@ -22621,7 +22584,6 @@
       <c r="I89" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J89" s="0"/>
       <c r="K89" s="1" t="n">
         <f aca="false">IF(I89=N$1, COUNTIFS(N:N, $C89), 0)</f>
         <v>0</v>
@@ -22641,13 +22603,13 @@
       <c r="C90" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="3" t="s">
         <v>341</v>
       </c>
       <c r="G90" s="1" t="n">
@@ -22659,7 +22621,6 @@
       <c r="I90" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J90" s="0"/>
       <c r="K90" s="1" t="n">
         <f aca="false">IF(I90=N$1, COUNTIFS(N:N, $C90), 0)</f>
         <v>0</v>
@@ -22679,13 +22640,13 @@
       <c r="C91" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="3" t="s">
         <v>344</v>
       </c>
       <c r="G91" s="1" t="n">
@@ -22697,7 +22658,6 @@
       <c r="I91" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J91" s="0"/>
       <c r="K91" s="1" t="n">
         <f aca="false">IF(I91=N$1, COUNTIFS(N:N, $C91), 0)</f>
         <v>0</v>
@@ -22717,13 +22677,13 @@
       <c r="C92" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="3" t="s">
         <v>347</v>
       </c>
       <c r="G92" s="1" t="n">
@@ -22735,7 +22695,6 @@
       <c r="I92" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J92" s="0"/>
       <c r="K92" s="1" t="n">
         <f aca="false">IF(I92=N$1, COUNTIFS(N:N, $C92), 0)</f>
         <v>0</v>
@@ -22755,13 +22714,13 @@
       <c r="C93" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="3" t="s">
         <v>350</v>
       </c>
       <c r="G93" s="1" t="n">
@@ -22773,7 +22732,6 @@
       <c r="I93" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J93" s="0"/>
       <c r="K93" s="1" t="n">
         <f aca="false">IF(I93=N$1, COUNTIFS(N:N, $C93), 0)</f>
         <v>0</v>
@@ -22793,13 +22751,13 @@
       <c r="C94" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F94" s="3" t="s">
         <v>353</v>
       </c>
       <c r="G94" s="1" t="n">
@@ -22811,7 +22769,6 @@
       <c r="I94" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J94" s="0"/>
       <c r="K94" s="1" t="n">
         <f aca="false">IF(I94=N$1, COUNTIFS(N:N, $C94), 0)</f>
         <v>0</v>
@@ -22831,13 +22788,13 @@
       <c r="C95" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="3" t="s">
         <v>356</v>
       </c>
       <c r="G95" s="1" t="n">
@@ -22849,7 +22806,6 @@
       <c r="I95" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="0"/>
       <c r="K95" s="1" t="n">
         <f aca="false">IF(I95=N$1, COUNTIFS(N:N, $C95), 0)</f>
         <v>0</v>
@@ -22869,13 +22825,13 @@
       <c r="C96" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="3" t="s">
         <v>359</v>
       </c>
       <c r="G96" s="1" t="n">
@@ -22887,7 +22843,6 @@
       <c r="I96" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J96" s="0"/>
       <c r="K96" s="1" t="n">
         <f aca="false">IF(I96=N$1, COUNTIFS(N:N, $C96), 0)</f>
         <v>0</v>
@@ -22907,13 +22862,13 @@
       <c r="C97" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="3" t="s">
         <v>362</v>
       </c>
       <c r="G97" s="1" t="n">
@@ -22925,7 +22880,6 @@
       <c r="I97" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J97" s="0"/>
       <c r="K97" s="1" t="n">
         <f aca="false">IF(I97=N$1, COUNTIFS(N:N, $C97), 0)</f>
         <v>0</v>
@@ -22945,13 +22899,13 @@
       <c r="C98" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="3" t="s">
         <v>365</v>
       </c>
       <c r="G98" s="1" t="n">
@@ -22963,7 +22917,6 @@
       <c r="I98" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J98" s="0"/>
       <c r="K98" s="1" t="n">
         <f aca="false">IF(I98=N$1, COUNTIFS(N:N, $C98), 0)</f>
         <v>0</v>
@@ -22983,13 +22936,13 @@
       <c r="C99" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" s="3" t="s">
         <v>368</v>
       </c>
       <c r="G99" s="1" t="n">
@@ -23001,7 +22954,6 @@
       <c r="I99" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J99" s="0"/>
       <c r="K99" s="1" t="n">
         <f aca="false">IF(I99=N$1, COUNTIFS(N:N, $C99), 0)</f>
         <v>0</v>
@@ -23021,13 +22973,13 @@
       <c r="C100" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E100" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="3" t="s">
         <v>371</v>
       </c>
       <c r="G100" s="1" t="n">
@@ -23039,7 +22991,6 @@
       <c r="I100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J100" s="0"/>
       <c r="K100" s="1" t="n">
         <f aca="false">IF(I100=N$1, COUNTIFS(N:N, $C100), 0)</f>
         <v>0</v>
@@ -23059,13 +23010,13 @@
       <c r="C101" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E101" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" s="3" t="s">
         <v>374</v>
       </c>
       <c r="G101" s="1" t="n">
@@ -23077,7 +23028,6 @@
       <c r="I101" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J101" s="0"/>
       <c r="K101" s="1" t="n">
         <f aca="false">IF(I101=N$1, COUNTIFS(N:N, $C101), 0)</f>
         <v>0</v>
@@ -23097,13 +23047,13 @@
       <c r="C102" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E102" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="3" t="s">
         <v>377</v>
       </c>
       <c r="G102" s="1" t="n">
@@ -23115,7 +23065,6 @@
       <c r="I102" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J102" s="0"/>
       <c r="K102" s="1" t="n">
         <f aca="false">IF(I102=N$1, COUNTIFS(N:N, $C102), 0)</f>
         <v>0</v>
@@ -23135,13 +23084,13 @@
       <c r="C103" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" s="3" t="s">
         <v>380</v>
       </c>
       <c r="G103" s="1" t="n">
@@ -23153,7 +23102,6 @@
       <c r="I103" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J103" s="0"/>
       <c r="K103" s="1" t="n">
         <f aca="false">IF(I103=N$1, COUNTIFS(N:N, $C103), 0)</f>
         <v>0</v>
@@ -23173,13 +23121,13 @@
       <c r="C104" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" s="3" t="s">
         <v>383</v>
       </c>
       <c r="G104" s="1" t="n">
@@ -23191,7 +23139,6 @@
       <c r="I104" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J104" s="0"/>
       <c r="K104" s="1" t="n">
         <f aca="false">IF(I104=N$1, COUNTIFS(N:N, $C104), 0)</f>
         <v>0</v>
@@ -23211,13 +23158,13 @@
       <c r="C105" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="E105" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="F105" s="3" t="s">
         <v>386</v>
       </c>
       <c r="G105" s="1" t="n">
@@ -23229,7 +23176,6 @@
       <c r="I105" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J105" s="0"/>
       <c r="K105" s="1" t="n">
         <f aca="false">IF(I105=N$1, COUNTIFS(N:N, $C105), 0)</f>
         <v>0</v>
@@ -23249,13 +23195,13 @@
       <c r="C106" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E106" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" s="3" t="s">
         <v>389</v>
       </c>
       <c r="G106" s="1" t="n">
@@ -23267,7 +23213,6 @@
       <c r="I106" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J106" s="0"/>
       <c r="K106" s="1" t="n">
         <f aca="false">IF(I106=N$1, COUNTIFS(N:N, $C106), 0)</f>
         <v>0</v>
@@ -23287,13 +23232,13 @@
       <c r="C107" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E107" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="3" t="s">
         <v>392</v>
       </c>
       <c r="G107" s="1" t="n">
@@ -23305,7 +23250,6 @@
       <c r="I107" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J107" s="0"/>
       <c r="K107" s="1" t="n">
         <f aca="false">IF(I107=N$1, COUNTIFS(N:N, $C107), 0)</f>
         <v>0</v>
@@ -23325,13 +23269,13 @@
       <c r="C108" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E108" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" s="3" t="s">
         <v>395</v>
       </c>
       <c r="G108" s="1" t="n">
@@ -23343,7 +23287,6 @@
       <c r="I108" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="0"/>
       <c r="K108" s="1" t="n">
         <f aca="false">IF(I108=N$1, COUNTIFS(N:N, $C108), 0)</f>
         <v>0</v>
@@ -23363,13 +23306,13 @@
       <c r="C109" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="3" t="s">
         <v>398</v>
       </c>
       <c r="G109" s="1" t="n">
@@ -23381,7 +23324,6 @@
       <c r="I109" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J109" s="0"/>
       <c r="K109" s="1" t="n">
         <f aca="false">IF(I109=N$1, COUNTIFS(N:N, $C109), 0)</f>
         <v>0</v>
@@ -23401,13 +23343,13 @@
       <c r="C110" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="E110" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F110" s="3" t="s">
         <v>401</v>
       </c>
       <c r="G110" s="1" t="n">
@@ -23419,7 +23361,6 @@
       <c r="I110" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J110" s="0"/>
       <c r="K110" s="1" t="n">
         <f aca="false">IF(I110=N$1, COUNTIFS(N:N, $C110), 0)</f>
         <v>0</v>
@@ -23439,13 +23380,13 @@
       <c r="C111" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E111" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="F111" s="3" t="s">
         <v>404</v>
       </c>
       <c r="G111" s="1" t="n">
@@ -23457,7 +23398,6 @@
       <c r="I111" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J111" s="0"/>
       <c r="K111" s="1" t="n">
         <f aca="false">IF(I111=N$1, COUNTIFS(N:N, $C111), 0)</f>
         <v>0</v>
@@ -23477,13 +23417,13 @@
       <c r="C112" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E112" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" s="3" t="s">
         <v>407</v>
       </c>
       <c r="G112" s="1" t="n">
@@ -23495,7 +23435,6 @@
       <c r="I112" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J112" s="0"/>
       <c r="K112" s="1" t="n">
         <f aca="false">IF(I112=N$1, COUNTIFS(N:N, $C112), 0)</f>
         <v>0</v>
@@ -23515,13 +23454,13 @@
       <c r="C113" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E113" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="F113" s="3" t="s">
         <v>410</v>
       </c>
       <c r="G113" s="1" t="n">
@@ -23533,7 +23472,6 @@
       <c r="I113" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J113" s="0"/>
       <c r="K113" s="1" t="n">
         <f aca="false">IF(I113=N$1, COUNTIFS(N:N, $C113), 0)</f>
         <v>0</v>
@@ -23553,13 +23491,13 @@
       <c r="C114" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E114" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="F114" s="3" t="s">
         <v>413</v>
       </c>
       <c r="G114" s="1" t="n">
@@ -23571,7 +23509,6 @@
       <c r="I114" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J114" s="0"/>
       <c r="K114" s="1" t="n">
         <f aca="false">IF(I114=N$1, COUNTIFS(N:N, $C114), 0)</f>
         <v>0</v>
@@ -23591,13 +23528,13 @@
       <c r="C115" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F115" s="3" t="s">
         <v>416</v>
       </c>
       <c r="G115" s="1" t="n">
@@ -23609,7 +23546,6 @@
       <c r="I115" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J115" s="0"/>
       <c r="K115" s="1" t="n">
         <f aca="false">IF(I115=N$1, COUNTIFS(N:N, $C115), 0)</f>
         <v>0</v>
@@ -23629,13 +23565,13 @@
       <c r="C116" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" s="3" t="s">
         <v>419</v>
       </c>
       <c r="G116" s="1" t="n">
@@ -23647,7 +23583,6 @@
       <c r="I116" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J116" s="0"/>
       <c r="K116" s="1" t="n">
         <f aca="false">IF(I116=N$1, COUNTIFS(N:N, $C116), 0)</f>
         <v>0</v>
@@ -23667,11 +23602,11 @@
       <c r="C117" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>38</v>
+      <c r="E117" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>423</v>
@@ -23707,13 +23642,13 @@
       <c r="C118" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E118" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F118" s="4" t="s">
+      <c r="E118" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F118" s="3" t="s">
         <v>425</v>
       </c>
       <c r="G118" s="1" t="n">
@@ -23747,13 +23682,13 @@
       <c r="C119" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E119" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F119" s="4" t="s">
+      <c r="E119" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>427</v>
       </c>
       <c r="G119" s="1" t="n">
@@ -23787,13 +23722,13 @@
       <c r="C120" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E120" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F120" s="4" t="s">
+      <c r="E120" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>429</v>
       </c>
       <c r="G120" s="1" t="n">
@@ -23827,13 +23762,13 @@
       <c r="C121" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E121" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F121" s="4" t="s">
+      <c r="E121" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F121" s="3" t="s">
         <v>431</v>
       </c>
       <c r="G121" s="1" t="n">
@@ -23867,11 +23802,11 @@
       <c r="C122" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E122" s="4" t="s">
-        <v>38</v>
+      <c r="E122" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>433</v>
@@ -23907,13 +23842,13 @@
       <c r="C123" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E123" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F123" s="4" t="s">
+      <c r="E123" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>435</v>
       </c>
       <c r="G123" s="1" t="n">
@@ -23947,13 +23882,13 @@
       <c r="C124" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E124" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F124" s="4" t="s">
+      <c r="E124" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F124" s="3" t="s">
         <v>437</v>
       </c>
       <c r="G124" s="1" t="n">
@@ -23987,13 +23922,13 @@
       <c r="C125" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E125" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F125" s="4" t="s">
+      <c r="E125" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>439</v>
       </c>
       <c r="G125" s="1" t="n">
@@ -24027,11 +23962,11 @@
       <c r="C126" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D126" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E126" s="4" t="s">
-        <v>38</v>
+      <c r="E126" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>441</v>
@@ -24067,13 +24002,13 @@
       <c r="C127" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D127" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E127" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F127" s="4" t="s">
+      <c r="E127" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F127" s="3" t="s">
         <v>443</v>
       </c>
       <c r="G127" s="1" t="n">
@@ -24107,11 +24042,11 @@
       <c r="C128" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E128" s="4" t="s">
-        <v>38</v>
+      <c r="E128" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>446</v>
@@ -24147,11 +24082,11 @@
       <c r="C129" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E129" s="4" t="s">
-        <v>38</v>
+      <c r="E129" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>450</v>
@@ -24162,7 +24097,6 @@
       <c r="H129" s="1" t="n">
         <v>452</v>
       </c>
-      <c r="I129" s="0"/>
       <c r="J129" s="1" t="s">
         <v>13</v>
       </c>
@@ -24185,13 +24119,13 @@
       <c r="C130" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D130" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E130" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F130" s="4" t="s">
+      <c r="E130" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F130" s="3" t="s">
         <v>452</v>
       </c>
       <c r="G130" s="1" t="n">
@@ -24200,7 +24134,6 @@
       <c r="H130" s="1" t="n">
         <v>426</v>
       </c>
-      <c r="I130" s="0"/>
       <c r="J130" s="1" t="s">
         <v>13</v>
       </c>
@@ -24223,11 +24156,11 @@
       <c r="C131" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E131" s="4" t="s">
-        <v>38</v>
+      <c r="E131" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>454</v>
@@ -24238,7 +24171,6 @@
       <c r="H131" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="I131" s="0"/>
       <c r="J131" s="1" t="s">
         <v>13</v>
       </c>
@@ -24261,11 +24193,11 @@
       <c r="C132" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D132" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E132" s="4" t="s">
-        <v>38</v>
+      <c r="E132" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>457</v>
@@ -24276,7 +24208,6 @@
       <c r="H132" s="1" t="n">
         <v>435</v>
       </c>
-      <c r="I132" s="0"/>
       <c r="J132" s="1" t="s">
         <v>13</v>
       </c>
@@ -24299,13 +24230,13 @@
       <c r="C133" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E133" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F133" s="4" t="s">
+      <c r="E133" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F133" s="3" t="s">
         <v>460</v>
       </c>
       <c r="G133" s="1" t="n">
@@ -24314,7 +24245,6 @@
       <c r="H133" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="I133" s="0"/>
       <c r="J133" s="1" t="s">
         <v>13</v>
       </c>
@@ -24337,13 +24267,13 @@
       <c r="C134" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E134" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F134" s="4" t="s">
+      <c r="E134" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F134" s="3" t="s">
         <v>463</v>
       </c>
       <c r="G134" s="1" t="n">
@@ -24352,7 +24282,6 @@
       <c r="H134" s="1" t="n">
         <v>439</v>
       </c>
-      <c r="I134" s="0"/>
       <c r="J134" s="1" t="s">
         <v>13</v>
       </c>
@@ -24375,11 +24304,11 @@
       <c r="C135" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D135" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E135" s="4" t="s">
-        <v>38</v>
+      <c r="E135" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>466</v>
@@ -24390,7 +24319,6 @@
       <c r="H135" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="I135" s="0"/>
       <c r="J135" s="1" t="s">
         <v>13</v>
       </c>
@@ -24413,11 +24341,11 @@
       <c r="C136" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D136" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>38</v>
+      <c r="E136" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>469</v>
@@ -24428,7 +24356,6 @@
       <c r="H136" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="I136" s="0"/>
       <c r="J136" s="1" t="s">
         <v>13</v>
       </c>
@@ -24451,11 +24378,11 @@
       <c r="C137" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E137" s="4" t="s">
-        <v>38</v>
+      <c r="E137" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>472</v>
@@ -24466,7 +24393,6 @@
       <c r="H137" s="1" t="n">
         <v>446</v>
       </c>
-      <c r="I137" s="0"/>
       <c r="J137" s="1" t="s">
         <v>13</v>
       </c>
@@ -24489,11 +24415,11 @@
       <c r="C138" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E138" s="4" t="s">
-        <v>38</v>
+      <c r="E138" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>475</v>
@@ -24504,7 +24430,6 @@
       <c r="H138" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="I138" s="0"/>
       <c r="J138" s="1" t="s">
         <v>13</v>
       </c>
@@ -24527,13 +24452,13 @@
       <c r="C139" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E139" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F139" s="4" t="s">
+      <c r="E139" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F139" s="3" t="s">
         <v>478</v>
       </c>
       <c r="G139" s="1" t="n">
@@ -24542,7 +24467,6 @@
       <c r="H139" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="I139" s="0"/>
       <c r="J139" s="1" t="s">
         <v>13</v>
       </c>
@@ -24565,13 +24489,13 @@
       <c r="C140" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E140" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F140" s="4" t="s">
+      <c r="E140" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F140" s="3" t="s">
         <v>481</v>
       </c>
       <c r="G140" s="1" t="n">
@@ -24580,7 +24504,6 @@
       <c r="H140" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="I140" s="0"/>
       <c r="J140" s="1" t="s">
         <v>13</v>
       </c>
@@ -24603,13 +24526,13 @@
       <c r="C141" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E141" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F141" s="4" t="s">
+      <c r="E141" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F141" s="3" t="s">
         <v>484</v>
       </c>
       <c r="G141" s="1" t="n">
@@ -24618,7 +24541,6 @@
       <c r="H141" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="I141" s="0"/>
       <c r="J141" s="1" t="s">
         <v>13</v>
       </c>
@@ -24641,13 +24563,13 @@
       <c r="C142" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D142" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E142" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F142" s="4" t="s">
+      <c r="E142" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F142" s="3" t="s">
         <v>487</v>
       </c>
       <c r="G142" s="1" t="n">
@@ -24656,7 +24578,6 @@
       <c r="H142" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="I142" s="0"/>
       <c r="J142" s="1" t="s">
         <v>13</v>
       </c>
@@ -24679,11 +24600,11 @@
       <c r="C143" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D143" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E143" s="4" t="s">
-        <v>38</v>
+      <c r="E143" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>490</v>
@@ -24694,7 +24615,6 @@
       <c r="H143" s="1" t="n">
         <v>372</v>
       </c>
-      <c r="I143" s="0"/>
       <c r="J143" s="1" t="s">
         <v>13</v>
       </c>
@@ -24717,11 +24637,11 @@
       <c r="C144" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D144" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E144" s="4" t="s">
-        <v>38</v>
+      <c r="E144" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>493</v>
@@ -24732,7 +24652,6 @@
       <c r="H144" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="I144" s="0"/>
       <c r="J144" s="1" t="s">
         <v>13</v>
       </c>
@@ -24755,11 +24674,11 @@
       <c r="C145" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E145" s="4" t="s">
-        <v>38</v>
+      <c r="E145" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>496</v>
@@ -24770,7 +24689,6 @@
       <c r="H145" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="I145" s="0"/>
       <c r="J145" s="1" t="s">
         <v>13</v>
       </c>
@@ -24793,13 +24711,13 @@
       <c r="C146" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D146" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E146" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F146" s="4" t="s">
+      <c r="E146" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F146" s="3" t="s">
         <v>499</v>
       </c>
       <c r="G146" s="1" t="n">
@@ -24808,7 +24726,6 @@
       <c r="H146" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="I146" s="0"/>
       <c r="J146" s="1" t="s">
         <v>13</v>
       </c>
@@ -24831,13 +24748,13 @@
       <c r="C147" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D147" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E147" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F147" s="4" t="s">
+      <c r="E147" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F147" s="3" t="s">
         <v>503</v>
       </c>
       <c r="G147" s="1" t="n">
@@ -24849,7 +24766,6 @@
       <c r="I147" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J147" s="0"/>
       <c r="K147" s="1" t="n">
         <f aca="false">IF(I147=N$1, COUNTIFS(N:N, $C147), 0)</f>
         <v>1</v>
@@ -24869,11 +24785,11 @@
       <c r="C148" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="D148" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E148" s="4" t="s">
-        <v>38</v>
+      <c r="E148" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>505</v>
@@ -24887,7 +24803,6 @@
       <c r="I148" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J148" s="0"/>
       <c r="K148" s="1" t="n">
         <f aca="false">IF(I148=N$1, COUNTIFS(N:N, $C148), 0)</f>
         <v>1</v>
@@ -24907,13 +24822,13 @@
       <c r="C149" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="D149" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F149" s="4" t="s">
+      <c r="E149" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F149" s="3" t="s">
         <v>507</v>
       </c>
       <c r="G149" s="1" t="n">
@@ -24925,7 +24840,6 @@
       <c r="I149" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J149" s="0"/>
       <c r="K149" s="1" t="n">
         <f aca="false">IF(I149=N$1, COUNTIFS(N:N, $C149), 0)</f>
         <v>1</v>
@@ -24945,13 +24859,13 @@
       <c r="C150" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="D150" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E150" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F150" s="4" t="s">
+      <c r="E150" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F150" s="3" t="s">
         <v>509</v>
       </c>
       <c r="G150" s="1" t="n">
@@ -24963,7 +24877,6 @@
       <c r="I150" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J150" s="0"/>
       <c r="K150" s="1" t="n">
         <f aca="false">IF(I150=N$1, COUNTIFS(N:N, $C150), 0)</f>
         <v>1</v>
@@ -24983,13 +24896,13 @@
       <c r="C151" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D151" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E151" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F151" s="4" t="s">
+      <c r="E151" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F151" s="3" t="s">
         <v>511</v>
       </c>
       <c r="G151" s="1" t="n">
@@ -25001,7 +24914,6 @@
       <c r="I151" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J151" s="0"/>
       <c r="K151" s="1" t="n">
         <f aca="false">IF(I151=N$1, COUNTIFS(N:N, $C151), 0)</f>
         <v>1</v>
@@ -25021,11 +24933,11 @@
       <c r="C152" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="D152" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E152" s="4" t="s">
-        <v>38</v>
+      <c r="E152" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>513</v>
@@ -25039,7 +24951,6 @@
       <c r="I152" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J152" s="0"/>
       <c r="K152" s="1" t="n">
         <f aca="false">IF(I152=N$1, COUNTIFS(N:N, $C152), 0)</f>
         <v>1</v>
@@ -25059,11 +24970,11 @@
       <c r="C153" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="D153" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E153" s="4" t="s">
-        <v>38</v>
+      <c r="E153" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>515</v>
@@ -25077,7 +24988,6 @@
       <c r="I153" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J153" s="0"/>
       <c r="K153" s="1" t="n">
         <f aca="false">IF(I153=N$1, COUNTIFS(N:N, $C153), 0)</f>
         <v>1</v>
@@ -25097,11 +25007,11 @@
       <c r="C154" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="D154" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E154" s="4" t="s">
-        <v>38</v>
+      <c r="E154" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>517</v>
@@ -25115,7 +25025,6 @@
       <c r="I154" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J154" s="0"/>
       <c r="K154" s="1" t="n">
         <f aca="false">IF(I154=N$1, COUNTIFS(N:N, $C154), 0)</f>
         <v>1</v>
@@ -25135,13 +25044,13 @@
       <c r="C155" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D155" s="4" t="s">
+      <c r="D155" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E155" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F155" s="4" t="s">
+      <c r="E155" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F155" s="3" t="s">
         <v>519</v>
       </c>
       <c r="G155" s="1" t="n">
@@ -25153,7 +25062,6 @@
       <c r="I155" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J155" s="0"/>
       <c r="K155" s="1" t="n">
         <f aca="false">IF(I155=N$1, COUNTIFS(N:N, $C155), 0)</f>
         <v>1</v>
@@ -25173,13 +25081,13 @@
       <c r="C156" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="D156" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E156" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F156" s="4" t="s">
+      <c r="E156" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F156" s="3" t="s">
         <v>521</v>
       </c>
       <c r="G156" s="1" t="n">
@@ -25191,7 +25099,6 @@
       <c r="I156" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J156" s="0"/>
       <c r="K156" s="1" t="n">
         <f aca="false">IF(I156=N$1, COUNTIFS(N:N, $C156), 0)</f>
         <v>1</v>
@@ -25211,13 +25118,13 @@
       <c r="C157" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="D157" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E157" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F157" s="4" t="s">
+      <c r="E157" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F157" s="3" t="s">
         <v>523</v>
       </c>
       <c r="G157" s="1" t="n">
@@ -25229,7 +25136,6 @@
       <c r="I157" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J157" s="0"/>
       <c r="K157" s="1" t="n">
         <f aca="false">IF(I157=N$1, COUNTIFS(N:N, $C157), 0)</f>
         <v>1</v>
@@ -25249,13 +25155,13 @@
       <c r="C158" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="D158" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E158" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F158" s="4" t="s">
+      <c r="E158" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F158" s="3" t="s">
         <v>525</v>
       </c>
       <c r="G158" s="1" t="n">
@@ -25267,7 +25173,6 @@
       <c r="I158" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J158" s="0"/>
       <c r="K158" s="1" t="n">
         <f aca="false">IF(I158=N$1, COUNTIFS(N:N, $C158), 0)</f>
         <v>1</v>
@@ -25287,13 +25192,13 @@
       <c r="C159" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="D159" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E159" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F159" s="4" t="s">
+      <c r="E159" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F159" s="3" t="s">
         <v>527</v>
       </c>
       <c r="G159" s="1" t="n">
@@ -25305,7 +25210,6 @@
       <c r="I159" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J159" s="0"/>
       <c r="K159" s="1" t="n">
         <f aca="false">IF(I159=N$1, COUNTIFS(N:N, $C159), 0)</f>
         <v>1</v>
@@ -25325,13 +25229,13 @@
       <c r="C160" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="D160" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E160" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F160" s="4" t="s">
+      <c r="E160" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F160" s="3" t="s">
         <v>529</v>
       </c>
       <c r="G160" s="1" t="n">
@@ -25343,7 +25247,6 @@
       <c r="I160" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J160" s="0"/>
       <c r="K160" s="1" t="n">
         <f aca="false">IF(I160=N$1, COUNTIFS(N:N, $C160), 0)</f>
         <v>1</v>
@@ -25363,13 +25266,13 @@
       <c r="C161" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="D161" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E161" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F161" s="4" t="s">
+      <c r="E161" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F161" s="3" t="s">
         <v>531</v>
       </c>
       <c r="G161" s="1" t="n">
@@ -25381,7 +25284,6 @@
       <c r="I161" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J161" s="0"/>
       <c r="K161" s="1" t="n">
         <f aca="false">IF(I161=N$1, COUNTIFS(N:N, $C161), 0)</f>
         <v>1</v>
@@ -25401,13 +25303,13 @@
       <c r="C162" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D162" s="4" t="s">
+      <c r="D162" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E162" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F162" s="4" t="s">
+      <c r="E162" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F162" s="3" t="s">
         <v>533</v>
       </c>
       <c r="G162" s="1" t="n">
@@ -25419,7 +25321,6 @@
       <c r="I162" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J162" s="0"/>
       <c r="K162" s="1" t="n">
         <f aca="false">IF(I162=N$1, COUNTIFS(N:N, $C162), 0)</f>
         <v>1</v>
@@ -25439,11 +25340,11 @@
       <c r="C163" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="D163" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E163" s="4" t="s">
-        <v>38</v>
+      <c r="E163" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>535</v>
@@ -25457,7 +25358,6 @@
       <c r="I163" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J163" s="0"/>
       <c r="K163" s="1" t="n">
         <f aca="false">IF(I163=N$1, COUNTIFS(N:N, $C163), 0)</f>
         <v>1</v>
@@ -25477,13 +25377,13 @@
       <c r="C164" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D164" s="4" t="s">
+      <c r="D164" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E164" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F164" s="4" t="s">
+      <c r="E164" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F164" s="3" t="s">
         <v>537</v>
       </c>
       <c r="G164" s="1" t="n">
@@ -25495,7 +25395,6 @@
       <c r="I164" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J164" s="0"/>
       <c r="K164" s="1" t="n">
         <f aca="false">IF(I164=N$1, COUNTIFS(N:N, $C164), 0)</f>
         <v>1</v>
@@ -25515,11 +25414,11 @@
       <c r="C165" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D165" s="4" t="s">
+      <c r="D165" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E165" s="4" t="s">
-        <v>38</v>
+      <c r="E165" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>539</v>
@@ -25533,7 +25432,6 @@
       <c r="I165" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J165" s="0"/>
       <c r="K165" s="1" t="n">
         <f aca="false">IF(I165=N$1, COUNTIFS(N:N, $C165), 0)</f>
         <v>1</v>
@@ -25553,11 +25451,11 @@
       <c r="C166" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D166" s="4" t="s">
+      <c r="D166" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E166" s="4" t="s">
-        <v>38</v>
+      <c r="E166" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>541</v>
@@ -25571,7 +25469,6 @@
       <c r="I166" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J166" s="0"/>
       <c r="K166" s="1" t="n">
         <f aca="false">IF(I166=N$1, COUNTIFS(N:N, $C166), 0)</f>
         <v>1</v>
@@ -25591,13 +25488,13 @@
       <c r="C167" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="D167" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E167" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F167" s="4" t="s">
+      <c r="E167" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F167" s="3" t="s">
         <v>543</v>
       </c>
       <c r="G167" s="1" t="n">
@@ -25609,7 +25506,6 @@
       <c r="I167" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J167" s="0"/>
       <c r="K167" s="1" t="n">
         <f aca="false">IF(I167=N$1, COUNTIFS(N:N, $C167), 0)</f>
         <v>1</v>
@@ -25629,11 +25525,11 @@
       <c r="C168" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D168" s="4" t="s">
+      <c r="D168" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E168" s="4" t="s">
-        <v>38</v>
+      <c r="E168" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>545</v>
@@ -25647,7 +25543,6 @@
       <c r="I168" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J168" s="0"/>
       <c r="K168" s="1" t="n">
         <f aca="false">IF(I168=N$1, COUNTIFS(N:N, $C168), 0)</f>
         <v>1</v>
@@ -25667,11 +25562,11 @@
       <c r="C169" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D169" s="4" t="s">
+      <c r="D169" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E169" s="4" t="s">
-        <v>38</v>
+      <c r="E169" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>547</v>
@@ -25685,7 +25580,6 @@
       <c r="I169" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J169" s="0"/>
       <c r="K169" s="1" t="n">
         <f aca="false">IF(I169=N$1, COUNTIFS(N:N, $C169), 0)</f>
         <v>1</v>
@@ -25705,13 +25599,13 @@
       <c r="C170" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D170" s="4" t="s">
+      <c r="D170" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E170" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F170" s="4" t="s">
+      <c r="E170" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F170" s="3" t="s">
         <v>549</v>
       </c>
       <c r="G170" s="1" t="n">
@@ -25723,7 +25617,6 @@
       <c r="I170" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J170" s="0"/>
       <c r="K170" s="1" t="n">
         <f aca="false">IF(I170=N$1, COUNTIFS(N:N, $C170), 0)</f>
         <v>1</v>
@@ -25743,13 +25636,13 @@
       <c r="C171" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="D171" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E171" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F171" s="4" t="s">
+      <c r="E171" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F171" s="3" t="s">
         <v>551</v>
       </c>
       <c r="G171" s="1" t="n">
@@ -25761,7 +25654,6 @@
       <c r="I171" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J171" s="0"/>
       <c r="K171" s="1" t="n">
         <f aca="false">IF(I171=N$1, COUNTIFS(N:N, $C171), 0)</f>
         <v>1</v>
@@ -25781,13 +25673,13 @@
       <c r="C172" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D172" s="4" t="s">
+      <c r="D172" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E172" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F172" s="4" t="s">
+      <c r="E172" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F172" s="3" t="s">
         <v>553</v>
       </c>
       <c r="G172" s="1" t="n">
@@ -25799,7 +25691,6 @@
       <c r="I172" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J172" s="0"/>
       <c r="K172" s="1" t="n">
         <f aca="false">IF(I172=N$1, COUNTIFS(N:N, $C172), 0)</f>
         <v>1</v>
@@ -25819,11 +25710,11 @@
       <c r="C173" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="D173" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E173" s="4" t="s">
-        <v>38</v>
+      <c r="E173" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>555</v>
@@ -25837,7 +25728,6 @@
       <c r="I173" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J173" s="0"/>
       <c r="K173" s="1" t="n">
         <f aca="false">IF(I173=N$1, COUNTIFS(N:N, $C173), 0)</f>
         <v>1</v>
@@ -25857,13 +25747,13 @@
       <c r="C174" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D174" s="4" t="s">
+      <c r="D174" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E174" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F174" s="4" t="s">
+      <c r="E174" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F174" s="3" t="s">
         <v>557</v>
       </c>
       <c r="G174" s="1" t="n">
@@ -25875,7 +25765,6 @@
       <c r="I174" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J174" s="0"/>
       <c r="K174" s="1" t="n">
         <f aca="false">IF(I174=N$1, COUNTIFS(N:N, $C174), 0)</f>
         <v>1</v>
@@ -25895,11 +25784,11 @@
       <c r="C175" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D175" s="4" t="s">
+      <c r="D175" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E175" s="4" t="s">
-        <v>38</v>
+      <c r="E175" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>559</v>
@@ -25913,7 +25802,6 @@
       <c r="I175" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J175" s="0"/>
       <c r="K175" s="1" t="n">
         <f aca="false">IF(I175=N$1, COUNTIFS(N:N, $C175), 0)</f>
         <v>1</v>
@@ -25933,11 +25821,11 @@
       <c r="C176" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D176" s="4" t="s">
+      <c r="D176" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E176" s="4" t="s">
-        <v>38</v>
+      <c r="E176" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>561</v>
@@ -25951,7 +25839,6 @@
       <c r="I176" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J176" s="0"/>
       <c r="K176" s="1" t="n">
         <f aca="false">IF(I176=N$1, COUNTIFS(N:N, $C176), 0)</f>
         <v>1</v>
@@ -25971,11 +25858,11 @@
       <c r="C177" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D177" s="4" t="s">
+      <c r="D177" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E177" s="4" t="s">
-        <v>38</v>
+      <c r="E177" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>563</v>
@@ -25989,7 +25876,6 @@
       <c r="I177" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J177" s="0"/>
       <c r="K177" s="1" t="n">
         <f aca="false">IF(I177=N$1, COUNTIFS(N:N, $C177), 0)</f>
         <v>1</v>
@@ -26009,13 +25895,13 @@
       <c r="C178" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D178" s="4" t="s">
+      <c r="D178" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E178" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F178" s="4" t="s">
+      <c r="E178" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F178" s="3" t="s">
         <v>565</v>
       </c>
       <c r="G178" s="1" t="n">
@@ -26027,7 +25913,6 @@
       <c r="I178" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J178" s="0"/>
       <c r="K178" s="1" t="n">
         <f aca="false">IF(I178=N$1, COUNTIFS(N:N, $C178), 0)</f>
         <v>1</v>
@@ -26047,13 +25932,13 @@
       <c r="C179" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D179" s="4" t="s">
+      <c r="D179" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E179" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F179" s="4" t="s">
+      <c r="E179" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F179" s="3" t="s">
         <v>567</v>
       </c>
       <c r="G179" s="1" t="n">
@@ -26065,7 +25950,6 @@
       <c r="I179" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J179" s="0"/>
       <c r="K179" s="1" t="n">
         <f aca="false">IF(I179=N$1, COUNTIFS(N:N, $C179), 0)</f>
         <v>1</v>
@@ -26085,13 +25969,13 @@
       <c r="C180" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D180" s="4" t="s">
+      <c r="D180" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E180" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F180" s="4" t="s">
+      <c r="E180" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F180" s="3" t="s">
         <v>569</v>
       </c>
       <c r="G180" s="1" t="n">
@@ -26103,7 +25987,6 @@
       <c r="I180" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J180" s="0"/>
       <c r="K180" s="1" t="n">
         <f aca="false">IF(I180=N$1, COUNTIFS(N:N, $C180), 0)</f>
         <v>1</v>
@@ -26123,11 +26006,11 @@
       <c r="C181" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D181" s="4" t="s">
+      <c r="D181" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E181" s="4" t="s">
-        <v>38</v>
+      <c r="E181" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>571</v>
@@ -26141,7 +26024,6 @@
       <c r="I181" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J181" s="0"/>
       <c r="K181" s="1" t="n">
         <f aca="false">IF(I181=N$1, COUNTIFS(N:N, $C181), 0)</f>
         <v>1</v>
@@ -26161,11 +26043,11 @@
       <c r="C182" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D182" s="4" t="s">
+      <c r="D182" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E182" s="4" t="s">
-        <v>38</v>
+      <c r="E182" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>450</v>
@@ -26179,7 +26061,6 @@
       <c r="I182" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J182" s="0"/>
       <c r="K182" s="1" t="n">
         <f aca="false">IF(I182=N$1, COUNTIFS(N:N, $C182), 0)</f>
         <v>1</v>
@@ -26199,13 +26080,13 @@
       <c r="C183" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D183" s="4" t="s">
+      <c r="D183" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E183" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F183" s="4" t="s">
+      <c r="E183" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F183" s="3" t="s">
         <v>452</v>
       </c>
       <c r="G183" s="1" t="n">
@@ -26217,7 +26098,6 @@
       <c r="I183" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J183" s="0"/>
       <c r="K183" s="1" t="n">
         <f aca="false">IF(I183=N$1, COUNTIFS(N:N, $C183), 0)</f>
         <v>1</v>
@@ -26237,11 +26117,11 @@
       <c r="C184" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D184" s="4" t="s">
+      <c r="D184" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E184" s="4" t="s">
-        <v>38</v>
+      <c r="E184" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>454</v>
@@ -26255,7 +26135,6 @@
       <c r="I184" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J184" s="0"/>
       <c r="K184" s="1" t="n">
         <f aca="false">IF(I184=N$1, COUNTIFS(N:N, $C184), 0)</f>
         <v>1</v>
@@ -26275,11 +26154,11 @@
       <c r="C185" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D185" s="4" t="s">
+      <c r="D185" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E185" s="4" t="s">
-        <v>38</v>
+      <c r="E185" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>457</v>
@@ -26293,7 +26172,6 @@
       <c r="I185" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J185" s="0"/>
       <c r="K185" s="1" t="n">
         <f aca="false">IF(I185=N$1, COUNTIFS(N:N, $C185), 0)</f>
         <v>0</v>
@@ -26313,13 +26191,13 @@
       <c r="C186" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D186" s="4" t="s">
+      <c r="D186" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E186" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F186" s="4" t="s">
+      <c r="E186" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F186" s="3" t="s">
         <v>460</v>
       </c>
       <c r="G186" s="1" t="n">
@@ -26331,7 +26209,6 @@
       <c r="I186" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J186" s="0"/>
       <c r="K186" s="1" t="n">
         <f aca="false">IF(I186=N$1, COUNTIFS(N:N, $C186), 0)</f>
         <v>0</v>
@@ -26351,13 +26228,13 @@
       <c r="C187" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D187" s="4" t="s">
+      <c r="D187" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E187" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F187" s="4" t="s">
+      <c r="E187" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F187" s="3" t="s">
         <v>463</v>
       </c>
       <c r="G187" s="1" t="n">
@@ -26369,7 +26246,6 @@
       <c r="I187" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J187" s="0"/>
       <c r="K187" s="1" t="n">
         <f aca="false">IF(I187=N$1, COUNTIFS(N:N, $C187), 0)</f>
         <v>0</v>
@@ -26389,11 +26265,11 @@
       <c r="C188" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D188" s="4" t="s">
+      <c r="D188" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E188" s="4" t="s">
-        <v>38</v>
+      <c r="E188" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>466</v>
@@ -26407,7 +26283,6 @@
       <c r="I188" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J188" s="0"/>
       <c r="K188" s="1" t="n">
         <f aca="false">IF(I188=N$1, COUNTIFS(N:N, $C188), 0)</f>
         <v>0</v>
@@ -26427,11 +26302,11 @@
       <c r="C189" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D189" s="4" t="s">
+      <c r="D189" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E189" s="4" t="s">
-        <v>38</v>
+      <c r="E189" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>469</v>
@@ -26445,7 +26320,6 @@
       <c r="I189" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J189" s="0"/>
       <c r="K189" s="1" t="n">
         <f aca="false">IF(I189=N$1, COUNTIFS(N:N, $C189), 0)</f>
         <v>0</v>
@@ -26465,11 +26339,11 @@
       <c r="C190" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D190" s="4" t="s">
+      <c r="D190" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E190" s="4" t="s">
-        <v>38</v>
+      <c r="E190" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>472</v>
@@ -26483,7 +26357,6 @@
       <c r="I190" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J190" s="0"/>
       <c r="K190" s="1" t="n">
         <f aca="false">IF(I190=N$1, COUNTIFS(N:N, $C190), 0)</f>
         <v>0</v>
@@ -26503,11 +26376,11 @@
       <c r="C191" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D191" s="4" t="s">
+      <c r="D191" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E191" s="4" t="s">
-        <v>38</v>
+      <c r="E191" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>475</v>
@@ -26521,7 +26394,6 @@
       <c r="I191" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J191" s="0"/>
       <c r="K191" s="1" t="n">
         <f aca="false">IF(I191=N$1, COUNTIFS(N:N, $C191), 0)</f>
         <v>0</v>
@@ -26541,13 +26413,13 @@
       <c r="C192" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D192" s="4" t="s">
+      <c r="D192" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E192" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F192" s="4" t="s">
+      <c r="E192" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F192" s="3" t="s">
         <v>478</v>
       </c>
       <c r="G192" s="1" t="n">
@@ -26559,7 +26431,6 @@
       <c r="I192" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J192" s="0"/>
       <c r="K192" s="1" t="n">
         <f aca="false">IF(I192=N$1, COUNTIFS(N:N, $C192), 0)</f>
         <v>0</v>
@@ -26579,13 +26450,13 @@
       <c r="C193" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D193" s="4" t="s">
+      <c r="D193" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E193" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F193" s="4" t="s">
+      <c r="E193" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F193" s="3" t="s">
         <v>481</v>
       </c>
       <c r="G193" s="1" t="n">
@@ -26597,7 +26468,6 @@
       <c r="I193" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J193" s="0"/>
       <c r="K193" s="1" t="n">
         <f aca="false">IF(I193=N$1, COUNTIFS(N:N, $C193), 0)</f>
         <v>0</v>
@@ -26617,13 +26487,13 @@
       <c r="C194" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="D194" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E194" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F194" s="4" t="s">
+      <c r="E194" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F194" s="3" t="s">
         <v>484</v>
       </c>
       <c r="G194" s="1" t="n">
@@ -26635,7 +26505,6 @@
       <c r="I194" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J194" s="0"/>
       <c r="K194" s="1" t="n">
         <f aca="false">IF(I194=N$1, COUNTIFS(N:N, $C194), 0)</f>
         <v>0</v>
@@ -26655,13 +26524,13 @@
       <c r="C195" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D195" s="4" t="s">
+      <c r="D195" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E195" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F195" s="4" t="s">
+      <c r="E195" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F195" s="3" t="s">
         <v>487</v>
       </c>
       <c r="G195" s="1" t="n">
@@ -26673,7 +26542,6 @@
       <c r="I195" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J195" s="0"/>
       <c r="K195" s="1" t="n">
         <f aca="false">IF(I195=N$1, COUNTIFS(N:N, $C195), 0)</f>
         <v>0</v>
@@ -26693,11 +26561,11 @@
       <c r="C196" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D196" s="4" t="s">
+      <c r="D196" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E196" s="4" t="s">
-        <v>38</v>
+      <c r="E196" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>490</v>
@@ -26711,7 +26579,6 @@
       <c r="I196" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J196" s="0"/>
       <c r="K196" s="1" t="n">
         <f aca="false">IF(I196=N$1, COUNTIFS(N:N, $C196), 0)</f>
         <v>0</v>
@@ -26731,11 +26598,11 @@
       <c r="C197" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="D197" s="4" t="s">
+      <c r="D197" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E197" s="4" t="s">
-        <v>38</v>
+      <c r="E197" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>493</v>
@@ -26749,7 +26616,6 @@
       <c r="I197" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J197" s="0"/>
       <c r="K197" s="1" t="n">
         <f aca="false">IF(I197=N$1, COUNTIFS(N:N, $C197), 0)</f>
         <v>0</v>
@@ -26769,11 +26635,11 @@
       <c r="C198" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D198" s="4" t="s">
+      <c r="D198" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E198" s="4" t="s">
-        <v>38</v>
+      <c r="E198" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>496</v>
@@ -26787,7 +26653,6 @@
       <c r="I198" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J198" s="0"/>
       <c r="K198" s="1" t="n">
         <f aca="false">IF(I198=N$1, COUNTIFS(N:N, $C198), 0)</f>
         <v>0</v>
@@ -26807,13 +26672,13 @@
       <c r="C199" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D199" s="4" t="s">
+      <c r="D199" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E199" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F199" s="4" t="s">
+      <c r="E199" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F199" s="3" t="s">
         <v>499</v>
       </c>
       <c r="G199" s="1" t="n">
@@ -26825,7 +26690,6 @@
       <c r="I199" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J199" s="0"/>
       <c r="K199" s="1" t="n">
         <f aca="false">IF(I199=N$1, COUNTIFS(N:N, $C199), 0)</f>
         <v>0</v>
@@ -26842,16 +26706,16 @@
       <c r="B200" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="C200" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="D200" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F200" s="4" t="s">
+      <c r="D200" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F200" s="3" t="s">
         <v>593</v>
       </c>
       <c r="G200" s="1" t="n">
@@ -26879,16 +26743,16 @@
       <c r="B201" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="C201" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="D201" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F201" s="4" t="s">
+      <c r="D201" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F201" s="3" t="s">
         <v>593</v>
       </c>
       <c r="G201" s="1" t="n">
@@ -26916,16 +26780,16 @@
       <c r="B202" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="C202" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="D202" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F202" s="4" t="s">
+      <c r="D202" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F202" s="3" t="s">
         <v>593</v>
       </c>
       <c r="G202" s="1" t="n">
@@ -26953,16 +26817,16 @@
       <c r="B203" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="C203" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="D203" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F203" s="4" t="s">
+      <c r="D203" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F203" s="3" t="s">
         <v>593</v>
       </c>
       <c r="G203" s="1" t="n">
@@ -26990,16 +26854,16 @@
       <c r="B204" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D204" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F204" s="4" t="s">
+      <c r="D204" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F204" s="3" t="s">
         <v>593</v>
       </c>
       <c r="G204" s="1" t="n">
@@ -27027,16 +26891,16 @@
       <c r="B205" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C205" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="D205" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F205" s="4" t="s">
+      <c r="D205" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F205" s="3" t="s">
         <v>593</v>
       </c>
       <c r="G205" s="1" t="n">
@@ -27064,16 +26928,16 @@
       <c r="B206" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="C206" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="D206" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F206" s="4" t="s">
+      <c r="D206" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F206" s="3" t="s">
         <v>593</v>
       </c>
       <c r="G206" s="1" t="n">
@@ -27101,16 +26965,16 @@
       <c r="B207" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="C207" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="D207" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F207" s="4" t="s">
+      <c r="D207" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F207" s="3" t="s">
         <v>593</v>
       </c>
       <c r="G207" s="1" t="n">
@@ -27138,16 +27002,16 @@
       <c r="B208" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C208" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="D208" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F208" s="4" t="s">
+      <c r="D208" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F208" s="3" t="s">
         <v>593</v>
       </c>
       <c r="G208" s="1" t="n">
@@ -27175,16 +27039,16 @@
       <c r="B209" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C209" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="D209" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F209" s="4" t="s">
+      <c r="D209" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F209" s="3" t="s">
         <v>593</v>
       </c>
       <c r="G209" s="1" t="n">
@@ -27212,16 +27076,16 @@
       <c r="B210" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="C210" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="D210" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F210" s="4" t="s">
+      <c r="D210" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F210" s="3" t="s">
         <v>593</v>
       </c>
       <c r="G210" s="1" t="n">
@@ -27249,16 +27113,16 @@
       <c r="B211" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="C211" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="D211" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F211" s="4" t="s">
+      <c r="D211" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F211" s="3" t="s">
         <v>593</v>
       </c>
       <c r="G211" s="1" t="n">
@@ -27286,16 +27150,16 @@
       <c r="B212" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="C212" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="D212" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F212" s="4" t="s">
+      <c r="D212" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F212" s="3" t="s">
         <v>593</v>
       </c>
       <c r="G212" s="1" t="n">
@@ -27323,16 +27187,16 @@
       <c r="B213" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="C213" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="D213" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F213" s="4" t="s">
+      <c r="D213" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F213" s="3" t="s">
         <v>620</v>
       </c>
       <c r="G213" s="1" t="n">
@@ -27360,16 +27224,16 @@
       <c r="B214" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="C214" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="D214" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F214" s="4" t="s">
+      <c r="D214" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F214" s="3" t="s">
         <v>620</v>
       </c>
       <c r="G214" s="1" t="n">
@@ -27397,16 +27261,16 @@
       <c r="B215" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="C215" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="D215" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F215" s="4" t="s">
+      <c r="D215" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F215" s="3" t="s">
         <v>625</v>
       </c>
       <c r="G215" s="1" t="n">
@@ -27434,16 +27298,16 @@
       <c r="B216" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C216" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="D216" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F216" s="4" t="s">
+      <c r="D216" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F216" s="3" t="s">
         <v>625</v>
       </c>
       <c r="G216" s="1" t="n">
@@ -27471,16 +27335,16 @@
       <c r="B217" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="C217" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="D217" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F217" s="4" t="s">
+      <c r="D217" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F217" s="3" t="s">
         <v>630</v>
       </c>
       <c r="G217" s="1" t="n">
@@ -27508,16 +27372,16 @@
       <c r="B218" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C218" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D218" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F218" s="4" t="s">
+      <c r="D218" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F218" s="3" t="s">
         <v>633</v>
       </c>
       <c r="G218" s="1" t="n">
@@ -27545,16 +27409,16 @@
       <c r="B219" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="C219" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="D219" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E219" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F219" s="4" t="s">
+      <c r="D219" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F219" s="3" t="s">
         <v>633</v>
       </c>
       <c r="G219" s="1" t="n">
@@ -27582,16 +27446,16 @@
       <c r="B220" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="C220" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="D220" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F220" s="4" t="s">
+      <c r="D220" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F220" s="3" t="s">
         <v>633</v>
       </c>
       <c r="G220" s="1" t="n">
@@ -27619,16 +27483,16 @@
       <c r="B221" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="C221" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D221" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F221" s="4" t="s">
+      <c r="D221" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F221" s="3" t="s">
         <v>633</v>
       </c>
       <c r="G221" s="1" t="n">
@@ -27656,16 +27520,16 @@
       <c r="B222" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="C222" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="D222" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F222" s="4" t="s">
+      <c r="D222" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F222" s="3" t="s">
         <v>633</v>
       </c>
       <c r="G222" s="1" t="n">
@@ -27693,16 +27557,16 @@
       <c r="B223" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="C223" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D223" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F223" s="4" t="s">
+      <c r="D223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F223" s="3" t="s">
         <v>644</v>
       </c>
       <c r="G223" s="1" t="n">
@@ -27730,16 +27594,16 @@
       <c r="B224" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C224" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="D224" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F224" s="4" t="s">
+      <c r="D224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F224" s="3" t="s">
         <v>644</v>
       </c>
       <c r="G224" s="1" t="n">
@@ -27767,16 +27631,16 @@
       <c r="B225" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="C225" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D225" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F225" s="4" t="s">
+      <c r="D225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F225" s="3" t="s">
         <v>644</v>
       </c>
       <c r="G225" s="1" t="n">
@@ -27804,16 +27668,16 @@
       <c r="B226" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="C226" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="D226" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F226" s="4" t="s">
+      <c r="D226" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F226" s="3" t="s">
         <v>644</v>
       </c>
       <c r="G226" s="1" t="n">
@@ -27841,16 +27705,16 @@
       <c r="B227" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="C227" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="D227" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F227" s="4" t="s">
+      <c r="D227" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F227" s="3" t="s">
         <v>653</v>
       </c>
       <c r="G227" s="1" t="n">
@@ -27878,16 +27742,16 @@
       <c r="B228" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="C228" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="D228" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E228" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F228" s="4" t="s">
+      <c r="D228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F228" s="3" t="s">
         <v>653</v>
       </c>
       <c r="G228" s="1" t="n">
@@ -27915,16 +27779,16 @@
       <c r="B229" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="C229" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="D229" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E229" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F229" s="4" t="s">
+      <c r="D229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F229" s="3" t="s">
         <v>653</v>
       </c>
       <c r="G229" s="1" t="n">
@@ -27952,16 +27816,16 @@
       <c r="B230" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="C230" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="D230" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E230" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F230" s="4" t="s">
+      <c r="D230" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F230" s="3" t="s">
         <v>653</v>
       </c>
       <c r="G230" s="1" t="n">
@@ -27989,16 +27853,16 @@
       <c r="B231" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="C231" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="D231" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E231" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F231" s="4" t="s">
+      <c r="D231" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F231" s="3" t="s">
         <v>653</v>
       </c>
       <c r="G231" s="1" t="n">
@@ -28026,16 +27890,16 @@
       <c r="B232" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C232" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="D232" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F232" s="4" t="s">
+      <c r="D232" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F232" s="3" t="s">
         <v>664</v>
       </c>
       <c r="G232" s="1" t="n">
@@ -28063,16 +27927,16 @@
       <c r="B233" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="C233" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="D233" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F233" s="4" t="s">
+      <c r="D233" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F233" s="3" t="s">
         <v>664</v>
       </c>
       <c r="G233" s="1" t="n">
@@ -28100,16 +27964,16 @@
       <c r="B234" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="C234" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="D234" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F234" s="4" t="s">
+      <c r="D234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F234" s="3" t="s">
         <v>664</v>
       </c>
       <c r="G234" s="1" t="n">
@@ -28137,16 +28001,16 @@
       <c r="B235" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="C235" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="D235" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F235" s="4" t="s">
+      <c r="D235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F235" s="3" t="s">
         <v>664</v>
       </c>
       <c r="G235" s="1" t="n">
@@ -28174,16 +28038,16 @@
       <c r="B236" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C236" s="4" t="s">
+      <c r="C236" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="D236" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E236" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F236" s="4" t="s">
+      <c r="D236" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F236" s="3" t="s">
         <v>664</v>
       </c>
       <c r="G236" s="1" t="n">
@@ -28211,16 +28075,16 @@
       <c r="B237" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C237" s="4" t="s">
+      <c r="C237" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="D237" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E237" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F237" s="4" t="s">
+      <c r="D237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F237" s="3" t="s">
         <v>664</v>
       </c>
       <c r="G237" s="1" t="n">
@@ -28248,16 +28112,16 @@
       <c r="B238" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="C238" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="D238" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F238" s="4" t="s">
+      <c r="D238" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F238" s="3" t="s">
         <v>664</v>
       </c>
       <c r="G238" s="1" t="n">
@@ -28285,16 +28149,16 @@
       <c r="B239" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C239" s="4" t="s">
+      <c r="C239" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="D239" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E239" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F239" s="4" t="s">
+      <c r="D239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F239" s="3" t="s">
         <v>664</v>
       </c>
       <c r="G239" s="1" t="n">
@@ -28322,16 +28186,16 @@
       <c r="B240" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="C240" s="4" t="s">
+      <c r="C240" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="D240" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E240" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F240" s="4" t="s">
+      <c r="D240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F240" s="3" t="s">
         <v>664</v>
       </c>
       <c r="G240" s="1" t="n">
@@ -28359,16 +28223,16 @@
       <c r="B241" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C241" s="4" t="s">
+      <c r="C241" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="D241" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E241" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F241" s="4" t="s">
+      <c r="D241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F241" s="3" t="s">
         <v>664</v>
       </c>
       <c r="G241" s="1" t="n">
@@ -28399,13 +28263,13 @@
       <c r="C242" s="1" t="n">
         <v>1020000022266</v>
       </c>
-      <c r="D242" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F242" s="4" t="s">
+      <c r="D242" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F242" s="3" t="s">
         <v>685</v>
       </c>
       <c r="G242" s="1" t="n">
@@ -28436,13 +28300,13 @@
       <c r="C243" s="1" t="n">
         <v>1020000083784</v>
       </c>
-      <c r="D243" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E243" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F243" s="4" t="s">
+      <c r="D243" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F243" s="3" t="s">
         <v>687</v>
       </c>
       <c r="G243" s="1" t="n">
@@ -28473,13 +28337,13 @@
       <c r="C244" s="1" t="n">
         <v>1020010036478</v>
       </c>
-      <c r="D244" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F244" s="4" t="s">
+      <c r="D244" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F244" s="3" t="s">
         <v>689</v>
       </c>
       <c r="G244" s="1" t="n">
@@ -28510,13 +28374,13 @@
       <c r="C245" s="1" t="n">
         <v>1020010054421</v>
       </c>
-      <c r="D245" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E245" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F245" s="4" t="s">
+      <c r="D245" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F245" s="3" t="s">
         <v>691</v>
       </c>
       <c r="G245" s="1" t="n">
@@ -28547,13 +28411,13 @@
       <c r="C246" s="1" t="n">
         <v>1020010080185</v>
       </c>
-      <c r="D246" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F246" s="4" t="s">
+      <c r="D246" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F246" s="3" t="s">
         <v>693</v>
       </c>
       <c r="G246" s="1" t="n">
@@ -28584,13 +28448,13 @@
       <c r="C247" s="1" t="n">
         <v>1020010087411</v>
       </c>
-      <c r="D247" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E247" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F247" s="4" t="s">
+      <c r="D247" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F247" s="3" t="s">
         <v>695</v>
       </c>
       <c r="G247" s="1" t="n">
@@ -28621,13 +28485,13 @@
       <c r="C248" s="1" t="n">
         <v>1020020018004</v>
       </c>
-      <c r="D248" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E248" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F248" s="4" t="s">
+      <c r="D248" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F248" s="3" t="s">
         <v>697</v>
       </c>
       <c r="G248" s="1" t="n">
@@ -28658,13 +28522,13 @@
       <c r="C249" s="1" t="n">
         <v>1020020053700</v>
       </c>
-      <c r="D249" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E249" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F249" s="4" t="s">
+      <c r="D249" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F249" s="3" t="s">
         <v>699</v>
       </c>
       <c r="G249" s="1" t="n">
@@ -28695,13 +28559,13 @@
       <c r="C250" s="1" t="n">
         <v>1020020084454</v>
       </c>
-      <c r="D250" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E250" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F250" s="4" t="s">
+      <c r="D250" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F250" s="3" t="s">
         <v>701</v>
       </c>
       <c r="G250" s="1" t="n">
@@ -28732,13 +28596,13 @@
       <c r="C251" s="1" t="n">
         <v>1020030028272</v>
       </c>
-      <c r="D251" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E251" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F251" s="4" t="s">
+      <c r="D251" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F251" s="3" t="s">
         <v>703</v>
       </c>
       <c r="G251" s="1" t="n">
@@ -28769,13 +28633,13 @@
       <c r="C252" s="1" t="n">
         <v>1020030056364</v>
       </c>
-      <c r="D252" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E252" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F252" s="4" t="s">
+      <c r="D252" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F252" s="3" t="s">
         <v>705</v>
       </c>
       <c r="G252" s="1" t="n">
@@ -28806,13 +28670,13 @@
       <c r="C253" s="1" t="n">
         <v>1020040056582</v>
       </c>
-      <c r="D253" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E253" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F253" s="4" t="s">
+      <c r="D253" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F253" s="3" t="s">
         <v>707</v>
       </c>
       <c r="G253" s="1" t="n">
@@ -28843,13 +28707,13 @@
       <c r="C254" s="1" t="n">
         <v>1020040056584</v>
       </c>
-      <c r="D254" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E254" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F254" s="4" t="s">
+      <c r="D254" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F254" s="3" t="s">
         <v>709</v>
       </c>
       <c r="G254" s="1" t="n">
@@ -28880,13 +28744,13 @@
       <c r="C255" s="1" t="n">
         <v>1020040056638</v>
       </c>
-      <c r="D255" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E255" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F255" s="4" t="s">
+      <c r="D255" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F255" s="3" t="s">
         <v>711</v>
       </c>
       <c r="G255" s="1" t="n">
@@ -28917,13 +28781,13 @@
       <c r="C256" s="1" t="n">
         <v>1020040078406</v>
       </c>
-      <c r="D256" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E256" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F256" s="4" t="s">
+      <c r="D256" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F256" s="3" t="s">
         <v>713</v>
       </c>
       <c r="G256" s="1" t="n">
@@ -28954,13 +28818,13 @@
       <c r="C257" s="1" t="n">
         <v>1020050015959</v>
       </c>
-      <c r="D257" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E257" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F257" s="4" t="s">
+      <c r="D257" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F257" s="3" t="s">
         <v>715</v>
       </c>
       <c r="G257" s="1" t="n">
@@ -28991,13 +28855,13 @@
       <c r="C258" s="1" t="n">
         <v>1020050019814</v>
       </c>
-      <c r="D258" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E258" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F258" s="4" t="s">
+      <c r="D258" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F258" s="3" t="s">
         <v>717</v>
       </c>
       <c r="G258" s="1" t="n">
@@ -29028,13 +28892,13 @@
       <c r="C259" s="1" t="n">
         <v>1020050064310</v>
       </c>
-      <c r="D259" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E259" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F259" s="4" t="s">
+      <c r="D259" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F259" s="3" t="s">
         <v>719</v>
       </c>
       <c r="G259" s="1" t="n">
@@ -29065,13 +28929,13 @@
       <c r="C260" s="1" t="n">
         <v>1020080010234</v>
       </c>
-      <c r="D260" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E260" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F260" s="4" t="s">
+      <c r="D260" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F260" s="3" t="s">
         <v>721</v>
       </c>
       <c r="G260" s="1" t="n">
@@ -29102,13 +28966,13 @@
       <c r="C261" s="1" t="n">
         <v>1020080019940</v>
       </c>
-      <c r="D261" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E261" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F261" s="4" t="s">
+      <c r="D261" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F261" s="3" t="s">
         <v>723</v>
       </c>
       <c r="G261" s="1" t="n">
@@ -29139,13 +29003,13 @@
       <c r="C262" s="1" t="n">
         <v>1020080020188</v>
       </c>
-      <c r="D262" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E262" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F262" s="4" t="s">
+      <c r="D262" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F262" s="3" t="s">
         <v>725</v>
       </c>
       <c r="G262" s="1" t="n">
@@ -29176,13 +29040,13 @@
       <c r="C263" s="1" t="n">
         <v>1020090051233</v>
       </c>
-      <c r="D263" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E263" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F263" s="4" t="s">
+      <c r="D263" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F263" s="3" t="s">
         <v>727</v>
       </c>
       <c r="G263" s="1" t="n">
@@ -29213,13 +29077,13 @@
       <c r="C264" s="1" t="n">
         <v>1020100120827</v>
       </c>
-      <c r="D264" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E264" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F264" s="4" t="s">
+      <c r="D264" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F264" s="3" t="s">
         <v>729</v>
       </c>
       <c r="G264" s="1" t="n">
@@ -29250,13 +29114,13 @@
       <c r="C265" s="1" t="n">
         <v>1020110025339</v>
       </c>
-      <c r="D265" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E265" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F265" s="4" t="s">
+      <c r="D265" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F265" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G265" s="1" t="n">
@@ -29287,13 +29151,13 @@
       <c r="C266" s="1" t="n">
         <v>1020110050673</v>
       </c>
-      <c r="D266" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E266" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F266" s="4" t="s">
+      <c r="D266" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F266" s="3" t="s">
         <v>733</v>
       </c>
       <c r="G266" s="1" t="n">
@@ -29324,13 +29188,13 @@
       <c r="C267" s="1" t="n">
         <v>1020110104047</v>
       </c>
-      <c r="D267" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E267" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F267" s="4" t="s">
+      <c r="D267" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F267" s="3" t="s">
         <v>735</v>
       </c>
       <c r="G267" s="1" t="n">
@@ -29361,13 +29225,13 @@
       <c r="C268" s="1" t="n">
         <v>1020110138719</v>
       </c>
-      <c r="D268" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E268" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F268" s="4" t="s">
+      <c r="D268" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F268" s="3" t="s">
         <v>737</v>
       </c>
       <c r="G268" s="1" t="n">
@@ -29398,13 +29262,13 @@
       <c r="C269" s="1" t="n">
         <v>1020120030889</v>
       </c>
-      <c r="D269" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E269" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F269" s="4" t="s">
+      <c r="D269" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F269" s="3" t="s">
         <v>739</v>
       </c>
       <c r="G269" s="1" t="n">
@@ -29435,13 +29299,13 @@
       <c r="C270" s="1" t="n">
         <v>1020120087002</v>
       </c>
-      <c r="D270" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E270" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F270" s="4" t="s">
+      <c r="D270" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F270" s="3" t="s">
         <v>741</v>
       </c>
       <c r="G270" s="1" t="n">
@@ -29472,13 +29336,13 @@
       <c r="C271" s="1" t="n">
         <v>1020120115740</v>
       </c>
-      <c r="D271" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E271" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F271" s="4" t="s">
+      <c r="D271" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F271" s="3" t="s">
         <v>743</v>
       </c>
       <c r="G271" s="1" t="n">
@@ -29509,13 +29373,13 @@
       <c r="C272" s="1" t="n">
         <v>1020120127894</v>
       </c>
-      <c r="D272" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E272" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F272" s="4" t="s">
+      <c r="D272" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F272" s="3" t="s">
         <v>745</v>
       </c>
       <c r="G272" s="1" t="n">
@@ -29546,13 +29410,13 @@
       <c r="C273" s="1" t="n">
         <v>1020120144532</v>
       </c>
-      <c r="D273" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E273" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F273" s="4" t="s">
+      <c r="D273" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F273" s="3" t="s">
         <v>747</v>
       </c>
       <c r="G273" s="1" t="n">
@@ -29583,13 +29447,13 @@
       <c r="C274" s="1" t="n">
         <v>1020130021737</v>
       </c>
-      <c r="D274" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E274" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F274" s="4" t="s">
+      <c r="D274" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F274" s="3" t="s">
         <v>749</v>
       </c>
       <c r="G274" s="1" t="n">
@@ -29620,13 +29484,13 @@
       <c r="C275" s="1" t="n">
         <v>1020130053682</v>
       </c>
-      <c r="D275" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E275" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F275" s="4" t="s">
+      <c r="D275" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F275" s="3" t="s">
         <v>751</v>
       </c>
       <c r="G275" s="1" t="n">
@@ -29657,13 +29521,13 @@
       <c r="C276" s="1" t="n">
         <v>1020140137731</v>
       </c>
-      <c r="D276" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E276" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F276" s="4" t="s">
+      <c r="D276" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F276" s="3" t="s">
         <v>753</v>
       </c>
       <c r="G276" s="1" t="n">
@@ -29694,13 +29558,13 @@
       <c r="C277" s="1" t="n">
         <v>1020150042306</v>
       </c>
-      <c r="D277" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E277" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F277" s="4" t="s">
+      <c r="D277" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F277" s="3" t="s">
         <v>755</v>
       </c>
       <c r="G277" s="1" t="n">
@@ -29731,13 +29595,13 @@
       <c r="C278" s="1" t="n">
         <v>2020070018478</v>
       </c>
-      <c r="D278" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E278" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F278" s="4" t="s">
+      <c r="D278" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F278" s="3" t="s">
         <v>757</v>
       </c>
       <c r="G278" s="1" t="n">
@@ -29768,13 +29632,13 @@
       <c r="C279" s="1" t="n">
         <v>2020130001049</v>
       </c>
-      <c r="D279" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E279" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F279" s="4" t="s">
+      <c r="D279" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F279" s="3" t="s">
         <v>759</v>
       </c>
       <c r="G279" s="1" t="n">
